--- a/Tier List.xlsx
+++ b/Tier List.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\ToMove\CF HELL\Tier List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\crashfever-tierlist-scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="650">
   <si>
     <t>[Morse](https://game8.jp/archives/93206)</t>
   </si>
@@ -1928,6 +1928,57 @@
   </si>
   <si>
     <t>[Dalton](https://game8.jp/archives/170300)</t>
+  </si>
+  <si>
+    <t>[Coulomb](https://game8.jp/archives/173447)</t>
+  </si>
+  <si>
+    <t>[Mephisto](https://game8.jp/archives/173701)</t>
+  </si>
+  <si>
+    <t>[Chelsea](https://game8.jp/archives/171424)</t>
+  </si>
+  <si>
+    <t>School Event Hatcher</t>
+  </si>
+  <si>
+    <t>[School Festival Antoinette](https://game8.jp/archives/171422)</t>
+  </si>
+  <si>
+    <t>[School Festival Sanson](https://game8.jp/archives/171423)</t>
+  </si>
+  <si>
+    <t>[School Festival Baal](https://game8.jp/archives/174190)</t>
+  </si>
+  <si>
+    <t>[School Festival Kushinadahime](https://game8.jp/archives/174188)</t>
+  </si>
+  <si>
+    <t>[School Festival Thumbelina](https://game8.jp/archives/174189)</t>
+  </si>
+  <si>
+    <t>[Amon](https://game8.jp/archives/174152)</t>
+  </si>
+  <si>
+    <t>[Satan](https://game8.jp/archives/174151)</t>
+  </si>
+  <si>
+    <t>[Paimon](https://game8.jp/archives/174153)</t>
+  </si>
+  <si>
+    <t>[School Festival Shoki](https://game8.jp/archives/174191)</t>
+  </si>
+  <si>
+    <t>School Event Quest</t>
+  </si>
+  <si>
+    <t>[Japanese Clothing Shoki](https://game8.jp/archives/174192)</t>
+  </si>
+  <si>
+    <t>[Idol Sanada Yukimura](https://game8.jp/archives/171418)</t>
+  </si>
+  <si>
+    <t>[School Festival Sanada Yukimura](https://game8.jp/archives/171419)</t>
   </si>
 </sst>
 </file>
@@ -2639,10 +2690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:XFD71"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3228,13 +3279,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>635</v>
       </c>
       <c r="B42" s="1">
         <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>423</v>
+        <v>636</v>
       </c>
       <c r="D42" t="s">
         <v>2</v>
@@ -3242,35 +3293,35 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="B43" s="1">
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="D43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>355</v>
       </c>
       <c r="B44" s="1">
         <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>404</v>
       </c>
       <c r="D44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B45" s="1">
         <v>88</v>
@@ -3279,18 +3330,18 @@
         <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B46" s="1">
         <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>418</v>
+        <v>124</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -3298,13 +3349,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B47" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
@@ -3312,27 +3363,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B48" s="1">
         <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B49" s="1">
         <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D49" t="s">
         <v>2</v>
@@ -3340,13 +3391,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B50" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
@@ -3354,27 +3405,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B51" s="1">
         <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>419</v>
       </c>
       <c r="D51" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="B52" s="1">
         <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>403</v>
+        <v>124</v>
       </c>
       <c r="D52" t="s">
         <v>1</v>
@@ -3382,13 +3433,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="B53" s="1">
         <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D53" t="s">
         <v>1</v>
@@ -3396,13 +3447,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B54" s="1">
         <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="D54" t="s">
         <v>1</v>
@@ -3410,13 +3461,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="B55" s="1">
         <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D55" t="s">
         <v>1</v>
@@ -3424,13 +3475,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="B56" s="1">
         <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D56" t="s">
         <v>1</v>
@@ -3438,13 +3489,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B57" s="1">
         <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>414</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
@@ -3452,10 +3503,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B58" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
         <v>124</v>
@@ -3466,13 +3517,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>356</v>
+        <v>23</v>
       </c>
       <c r="B59" s="1">
         <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>403</v>
+        <v>124</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
@@ -3480,13 +3531,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>356</v>
       </c>
       <c r="B60" s="1">
         <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
@@ -3494,13 +3545,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>620</v>
+        <v>80</v>
+      </c>
+      <c r="B61" s="1">
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
@@ -3508,13 +3559,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="1">
-        <v>85</v>
+        <v>92</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>620</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>389</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
@@ -3522,13 +3573,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B63" s="1">
         <v>85</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
@@ -3536,7 +3587,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="B64" s="1">
         <v>85</v>
@@ -3550,13 +3601,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>550</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>551</v>
+        <v>82</v>
+      </c>
+      <c r="B65" s="1">
+        <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>398</v>
+        <v>124</v>
       </c>
       <c r="D65" t="s">
         <v>1</v>
@@ -3564,49 +3615,49 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>458</v>
-      </c>
-      <c r="B66" s="1">
-        <v>83</v>
+        <v>550</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>398</v>
       </c>
       <c r="D66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>458</v>
       </c>
       <c r="B67" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>393</v>
+        <v>58</v>
       </c>
       <c r="D67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B68" s="1">
         <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>393</v>
       </c>
       <c r="D68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B69" s="1">
         <v>82</v>
@@ -3620,13 +3671,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>470</v>
+        <v>27</v>
       </c>
       <c r="B70" s="1">
         <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>421</v>
+        <v>58</v>
       </c>
       <c r="D70" t="s">
         <v>2</v>
@@ -3634,21 +3685,21 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>470</v>
       </c>
       <c r="B71" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>124</v>
+        <v>421</v>
       </c>
       <c r="D71" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B72" s="1">
         <v>81</v>
@@ -3662,13 +3713,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>590</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>591</v>
+        <v>36</v>
+      </c>
+      <c r="B73" s="1">
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>438</v>
+        <v>124</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
@@ -3676,13 +3727,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>88</v>
-      </c>
-      <c r="B74" s="1">
-        <v>81</v>
+        <v>590</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="C74" t="s">
-        <v>124</v>
+        <v>438</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
@@ -3690,21 +3741,21 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="B75" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B76" s="1">
         <v>80</v>
@@ -3713,18 +3764,18 @@
         <v>58</v>
       </c>
       <c r="D76" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>459</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>549</v>
+        <v>31</v>
+      </c>
+      <c r="B77" s="1">
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>589</v>
+        <v>58</v>
       </c>
       <c r="D77" t="s">
         <v>1</v>
@@ -3732,13 +3783,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>459</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>619</v>
+        <v>549</v>
       </c>
       <c r="C78" t="s">
-        <v>386</v>
+        <v>589</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
@@ -3746,13 +3797,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>33</v>
-      </c>
-      <c r="B79" s="1">
-        <v>79</v>
+        <v>29</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>619</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
+        <v>386</v>
       </c>
       <c r="D79" t="s">
         <v>1</v>
@@ -3760,10 +3811,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B80" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
         <v>124</v>
@@ -3774,13 +3825,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B81" s="1">
         <v>78</v>
       </c>
       <c r="C81" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
@@ -3788,13 +3839,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" s="1">
         <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>393</v>
+        <v>58</v>
       </c>
       <c r="D82" t="s">
         <v>1</v>
@@ -3802,13 +3853,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B83" s="1">
         <v>78</v>
       </c>
       <c r="C83" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
@@ -3816,13 +3867,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>552</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>553</v>
+        <v>34</v>
+      </c>
+      <c r="B84" s="1">
+        <v>78</v>
       </c>
       <c r="C84" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D84" t="s">
         <v>1</v>
@@ -3830,13 +3881,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>35</v>
-      </c>
-      <c r="B85" s="1">
-        <v>78</v>
+        <v>552</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>553</v>
       </c>
       <c r="C85" t="s">
-        <v>58</v>
+        <v>398</v>
       </c>
       <c r="D85" t="s">
         <v>1</v>
@@ -3844,27 +3895,27 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>40</v>
+        <v>637</v>
       </c>
       <c r="B86" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>58</v>
+        <v>636</v>
       </c>
       <c r="D86" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B87" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C87" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="D87" t="s">
         <v>1</v>
@@ -3872,7 +3923,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="B88" s="1">
         <v>77</v>
@@ -3886,10 +3937,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="B89" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C89" t="s">
         <v>124</v>
@@ -3900,13 +3951,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C90" t="s">
-        <v>404</v>
+        <v>58</v>
       </c>
       <c r="D90" t="s">
         <v>1</v>
@@ -3914,41 +3965,41 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="1">
         <v>76</v>
       </c>
       <c r="C91" t="s">
-        <v>422</v>
+        <v>124</v>
       </c>
       <c r="D91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B92" s="1">
         <v>76</v>
       </c>
       <c r="C92" t="s">
-        <v>124</v>
+        <v>404</v>
       </c>
       <c r="D92" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B93" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C93" t="s">
-        <v>58</v>
+        <v>422</v>
       </c>
       <c r="D93" t="s">
         <v>2</v>
@@ -3956,10 +4007,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>593</v>
+        <v>41</v>
       </c>
       <c r="B94" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C94" t="s">
         <v>124</v>
@@ -3970,21 +4021,21 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>359</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>621</v>
+        <v>97</v>
+      </c>
+      <c r="B95" s="1">
+        <v>75</v>
       </c>
       <c r="C95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D95" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>42</v>
+        <v>593</v>
       </c>
       <c r="B96" s="1">
         <v>75</v>
@@ -3993,18 +4044,18 @@
         <v>124</v>
       </c>
       <c r="D96" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>44</v>
-      </c>
-      <c r="B97" s="1">
-        <v>74</v>
+        <v>359</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="C97" t="s">
-        <v>346</v>
+        <v>59</v>
       </c>
       <c r="D97" t="s">
         <v>1</v>
@@ -4012,13 +4063,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B98" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C98" t="s">
-        <v>390</v>
+        <v>124</v>
       </c>
       <c r="D98" t="s">
         <v>1</v>
@@ -4026,27 +4077,27 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="B99" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C99" t="s">
-        <v>431</v>
+        <v>346</v>
       </c>
       <c r="D99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="B100" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C100" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D100" t="s">
         <v>1</v>
@@ -4054,27 +4105,27 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B101" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C101" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D101" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B102" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C102" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="D102" t="s">
         <v>1</v>
@@ -4082,13 +4133,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>460</v>
+        <v>46</v>
       </c>
       <c r="B103" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C103" t="s">
-        <v>58</v>
+        <v>433</v>
       </c>
       <c r="D103" t="s">
         <v>1</v>
@@ -4096,13 +4147,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>434</v>
+        <v>358</v>
       </c>
       <c r="B104" s="1">
         <v>70</v>
       </c>
       <c r="C104" t="s">
-        <v>58</v>
+        <v>410</v>
       </c>
       <c r="D104" t="s">
         <v>1</v>
@@ -4110,27 +4161,27 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>50</v>
+        <v>460</v>
       </c>
       <c r="B105" s="1">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C105" t="s">
-        <v>354</v>
+        <v>58</v>
       </c>
       <c r="D105" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>47</v>
+        <v>434</v>
       </c>
       <c r="B106" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C106" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="D106" t="s">
         <v>1</v>
@@ -4138,27 +4189,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B107" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C107" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="D107" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B108" s="1">
         <v>65</v>
       </c>
       <c r="C108" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D108" t="s">
         <v>1</v>
@@ -4166,29 +4217,71 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>51</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="B109" s="1">
+        <v>65</v>
       </c>
       <c r="C109" t="s">
-        <v>124</v>
+        <v>384</v>
       </c>
       <c r="D109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" s="1">
+        <v>65</v>
+      </c>
+      <c r="C110" t="s">
+        <v>58</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>51</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C111" t="s">
+        <v>124</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>53</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C112" t="s">
         <v>429</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>642</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" t="s">
+        <v>124</v>
+      </c>
+      <c r="D113" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4200,10 +4293,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4733,28 +4826,28 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>126</v>
+      <c r="A38" s="5" t="s">
+        <v>638</v>
       </c>
       <c r="B38" s="4">
         <v>89</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>1</v>
+      <c r="C38" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B39" s="4">
         <v>89</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>1</v>
@@ -4762,10 +4855,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B40" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>124</v>
@@ -4776,55 +4869,55 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B41" s="4">
         <v>88</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>421</v>
+        <v>124</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>626</v>
+        <v>129</v>
+      </c>
+      <c r="B42" s="4">
+        <v>88</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>1</v>
+        <v>421</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" s="4">
-        <v>88</v>
+        <v>607</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>626</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44" s="4">
         <v>88</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>1</v>
@@ -4832,13 +4925,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B45" s="4">
         <v>88</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>1</v>
@@ -4846,13 +4939,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B46" s="4">
         <v>88</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>413</v>
+        <v>55</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>1</v>
@@ -4860,13 +4953,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>450</v>
+        <v>132</v>
       </c>
       <c r="B47" s="4">
         <v>88</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>1</v>
@@ -4874,27 +4967,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>133</v>
+        <v>450</v>
       </c>
       <c r="B48" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B49" s="4">
         <v>87</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>124</v>
+        <v>420</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>2</v>
@@ -4902,7 +4995,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B50" s="4">
         <v>87</v>
@@ -4911,18 +5004,18 @@
         <v>124</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B51" s="4">
         <v>87</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>1</v>
@@ -4930,13 +5023,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>555</v>
+        <v>136</v>
+      </c>
+      <c r="B52" s="4">
+        <v>87</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>1</v>
@@ -4944,41 +5037,41 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B53" s="4">
-        <v>87</v>
+        <v>554</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>555</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>430</v>
+        <v>55</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B54" s="4">
         <v>87</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>447</v>
+        <v>138</v>
       </c>
       <c r="B55" s="4">
         <v>87</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>1</v>
@@ -4986,27 +5079,27 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>139</v>
+        <v>447</v>
       </c>
       <c r="B56" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>56</v>
+        <v>409</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>361</v>
+        <v>139</v>
       </c>
       <c r="B57" s="4">
         <v>86</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>403</v>
+        <v>56</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>2</v>
@@ -5014,27 +5107,27 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>140</v>
+        <v>361</v>
       </c>
       <c r="B58" s="4">
         <v>86</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>557</v>
+        <v>140</v>
+      </c>
+      <c r="B59" s="4">
+        <v>86</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>1</v>
@@ -5042,13 +5135,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>557</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>1</v>
@@ -5056,41 +5149,41 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="B61" s="4">
-        <v>86</v>
+        <v>558</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>557</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>141</v>
+        <v>469</v>
       </c>
       <c r="B62" s="4">
         <v>86</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>124</v>
+        <v>421</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B63" s="4">
         <v>86</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>403</v>
+        <v>124</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>1</v>
@@ -5098,13 +5191,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B64" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>124</v>
+        <v>403</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>1</v>
@@ -5112,13 +5205,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B65" s="4">
         <v>85</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>409</v>
+        <v>124</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>1</v>
@@ -5126,13 +5219,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B66" s="4">
         <v>85</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>124</v>
+        <v>409</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>1</v>
@@ -5140,13 +5233,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B67" s="4">
         <v>85</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>1</v>
@@ -5154,13 +5247,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>560</v>
+        <v>147</v>
+      </c>
+      <c r="B68" s="4">
+        <v>85</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>398</v>
+        <v>58</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>1</v>
@@ -5168,13 +5261,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B69" s="4">
-        <v>84</v>
+        <v>559</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>124</v>
+        <v>398</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>1</v>
@@ -5182,13 +5275,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>362</v>
+        <v>148</v>
       </c>
       <c r="B70" s="4">
         <v>84</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>404</v>
+        <v>124</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>1</v>
@@ -5196,69 +5289,69 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D71" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B71" s="4">
+        <v>84</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B72" s="4">
-        <v>83</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D72" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>594</v>
+        <v>149</v>
       </c>
       <c r="B73" s="4">
-        <v>82</v>
-      </c>
-      <c r="C73" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>150</v>
+        <v>594</v>
       </c>
       <c r="B74" s="4">
         <v>82</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B75" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>1</v>
@@ -5266,7 +5359,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" s="4">
         <v>81</v>
@@ -5280,13 +5373,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B77" s="4">
         <v>81</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>1</v>
@@ -5294,13 +5387,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B78" s="4">
         <v>81</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>403</v>
+        <v>124</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>1</v>
@@ -5308,41 +5401,41 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>549</v>
+        <v>154</v>
+      </c>
+      <c r="B79" s="4">
+        <v>81</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="D79" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B80" s="4">
-        <v>80</v>
+        <v>608</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>549</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D80" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>59</v>
+        <v>155</v>
+      </c>
+      <c r="B81" s="4">
+        <v>80</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>1</v>
@@ -5350,13 +5443,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B82" s="4">
-        <v>80</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>394</v>
+        <v>178</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>1</v>
@@ -5364,13 +5457,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>627</v>
+        <v>156</v>
+      </c>
+      <c r="B83" s="4">
+        <v>80</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>58</v>
+        <v>394</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>1</v>
@@ -5378,13 +5471,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B84" s="4">
-        <v>79</v>
+        <v>561</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>627</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>404</v>
+        <v>58</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>1</v>
@@ -5392,27 +5485,27 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B85" s="4">
         <v>79</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>124</v>
+        <v>404</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>363</v>
+        <v>158</v>
       </c>
       <c r="B86" s="4">
         <v>79</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>354</v>
+        <v>124</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>2</v>
@@ -5420,27 +5513,27 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>159</v>
+        <v>363</v>
       </c>
       <c r="B87" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>124</v>
+        <v>354</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B88" s="4">
         <v>78</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>1</v>
@@ -5448,13 +5541,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B89" s="4">
         <v>78</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>1</v>
@@ -5462,13 +5555,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B90" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>1</v>
@@ -5476,7 +5569,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B91" s="4">
         <v>77</v>
@@ -5490,13 +5583,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B92" s="4">
         <v>77</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>1</v>
@@ -5504,13 +5597,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B93" s="4">
         <v>77</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>1</v>
@@ -5518,13 +5611,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B94" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>399</v>
+        <v>58</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>1</v>
@@ -5532,27 +5625,27 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B95" s="4">
         <v>76</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>124</v>
+        <v>399</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>471</v>
+        <v>166</v>
       </c>
       <c r="B96" s="4">
         <v>76</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>431</v>
+        <v>124</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>2</v>
@@ -5560,27 +5653,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>167</v>
+        <v>471</v>
       </c>
       <c r="B97" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B98" s="4">
         <v>75</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>346</v>
+        <v>428</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>1</v>
@@ -5588,21 +5681,21 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>472</v>
+        <v>168</v>
       </c>
       <c r="B99" s="4">
         <v>75</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D99" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>364</v>
+        <v>472</v>
       </c>
       <c r="B100" s="4">
         <v>75</v>
@@ -5610,47 +5703,47 @@
       <c r="C100" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>169</v>
+        <v>364</v>
       </c>
       <c r="B101" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>392</v>
+        <v>58</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>480</v>
+        <v>169</v>
       </c>
       <c r="B102" s="4">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>171</v>
+        <v>480</v>
       </c>
       <c r="B103" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>58</v>
+        <v>408</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>1</v>
@@ -5658,13 +5751,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B104" s="4">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>389</v>
+        <v>58</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>1</v>
@@ -5672,41 +5765,41 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B105" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>473</v>
+        <v>173</v>
       </c>
       <c r="B106" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>174</v>
+        <v>473</v>
       </c>
       <c r="B107" s="4">
         <v>65</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>124</v>
+        <v>436</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>1</v>
@@ -5714,7 +5807,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B108" s="4">
         <v>65</v>
@@ -5728,13 +5821,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B109" s="4">
         <v>65</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>384</v>
+        <v>124</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>1</v>
@@ -5742,29 +5835,85 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>365</v>
+        <v>176</v>
       </c>
       <c r="B110" s="4">
         <v>65</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B111" s="4">
+        <v>65</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B112" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D111" s="3" t="s">
+      <c r="C112" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D115" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5775,10 +5924,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:XFD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6602,27 +6751,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>220</v>
+        <v>648</v>
       </c>
       <c r="B59" s="1">
         <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>412</v>
+        <v>646</v>
       </c>
       <c r="D59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B60" s="1">
         <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
@@ -6630,13 +6779,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>452</v>
+        <v>221</v>
       </c>
       <c r="B61" s="1">
         <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
@@ -6644,27 +6793,27 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>225</v>
+        <v>452</v>
       </c>
       <c r="B62" s="1">
         <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="D62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>370</v>
+        <v>225</v>
       </c>
       <c r="B63" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D63" t="s">
         <v>2</v>
@@ -6672,13 +6821,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B64" s="1">
         <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>438</v>
       </c>
       <c r="D64" t="s">
         <v>2</v>
@@ -6686,13 +6835,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>474</v>
+        <v>371</v>
       </c>
       <c r="B65" s="1">
         <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D65" t="s">
         <v>2</v>
@@ -6700,27 +6849,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>222</v>
+        <v>474</v>
       </c>
       <c r="B66" s="1">
         <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>385</v>
+        <v>58</v>
       </c>
       <c r="D66" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B67" s="1">
         <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
@@ -6728,41 +6877,41 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B68" s="1">
         <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>412</v>
       </c>
       <c r="D68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>453</v>
+        <v>224</v>
       </c>
       <c r="B69" s="1">
         <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>404</v>
+        <v>58</v>
       </c>
       <c r="D69" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>226</v>
+        <v>453</v>
       </c>
       <c r="B70" s="1">
         <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>124</v>
+        <v>404</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
@@ -6770,21 +6919,21 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>372</v>
+        <v>226</v>
       </c>
       <c r="B71" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>227</v>
+        <v>372</v>
       </c>
       <c r="B72" s="1">
         <v>82</v>
@@ -6798,21 +6947,21 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B73" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
         <v>58</v>
       </c>
       <c r="D73" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="B74" s="1">
         <v>81</v>
@@ -6821,15 +6970,15 @@
         <v>58</v>
       </c>
       <c r="D74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B75" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
         <v>58</v>
@@ -6840,27 +6989,27 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>476</v>
+        <v>229</v>
       </c>
       <c r="B76" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>387</v>
+        <v>58</v>
       </c>
       <c r="D76" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B77" s="1">
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>439</v>
+        <v>58</v>
       </c>
       <c r="D77" t="s">
         <v>1</v>
@@ -6868,13 +7017,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>476</v>
       </c>
       <c r="B78" s="1">
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
@@ -6882,27 +7031,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B79" s="1">
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="D79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>374</v>
+        <v>232</v>
       </c>
       <c r="B80" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
@@ -6910,27 +7059,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B81" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>124</v>
+        <v>405</v>
       </c>
       <c r="D81" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>235</v>
+        <v>374</v>
       </c>
       <c r="B82" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>124</v>
+        <v>404</v>
       </c>
       <c r="D82" t="s">
         <v>1</v>
@@ -6938,10 +7087,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B83" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C83" t="s">
         <v>124</v>
@@ -6952,10 +7101,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B84" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C84" t="s">
         <v>124</v>
@@ -6966,7 +7115,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B85" s="1">
         <v>77</v>
@@ -6980,7 +7129,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B86" s="1">
         <v>77</v>
@@ -6994,24 +7143,24 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>240</v>
+        <v>649</v>
       </c>
       <c r="B87" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C87" t="s">
-        <v>428</v>
+        <v>646</v>
       </c>
       <c r="D87" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B88" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C88" t="s">
         <v>124</v>
@@ -7022,13 +7171,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B89" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C89" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D89" t="s">
         <v>1</v>
@@ -7036,13 +7185,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B90" s="1">
         <v>76</v>
       </c>
       <c r="C90" t="s">
-        <v>124</v>
+        <v>428</v>
       </c>
       <c r="D90" t="s">
         <v>1</v>
@@ -7050,24 +7199,24 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B91" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C91" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B92" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C92" t="s">
         <v>58</v>
@@ -7078,13 +7227,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B93" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C93" t="s">
-        <v>429</v>
+        <v>124</v>
       </c>
       <c r="D93" t="s">
         <v>1</v>
@@ -7092,27 +7241,27 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>580</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>579</v>
+        <v>244</v>
+      </c>
+      <c r="B94" s="1">
+        <v>75</v>
       </c>
       <c r="C94" t="s">
-        <v>432</v>
+        <v>58</v>
       </c>
       <c r="D94" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>477</v>
+        <v>246</v>
       </c>
       <c r="B95" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C95" t="s">
-        <v>58</v>
+        <v>429</v>
       </c>
       <c r="D95" t="s">
         <v>1</v>
@@ -7120,13 +7269,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>247</v>
-      </c>
-      <c r="B96" s="1">
-        <v>74</v>
+        <v>580</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="C96" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="D96" t="s">
         <v>1</v>
@@ -7134,13 +7283,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>248</v>
+        <v>477</v>
       </c>
       <c r="B97" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C97" t="s">
-        <v>436</v>
+        <v>58</v>
       </c>
       <c r="D97" t="s">
         <v>1</v>
@@ -7148,13 +7297,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>582</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>581</v>
+        <v>247</v>
+      </c>
+      <c r="B98" s="1">
+        <v>74</v>
       </c>
       <c r="C98" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="D98" t="s">
         <v>1</v>
@@ -7162,13 +7311,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B99" s="1">
         <v>73</v>
       </c>
       <c r="C99" t="s">
-        <v>124</v>
+        <v>436</v>
       </c>
       <c r="D99" t="s">
         <v>1</v>
@@ -7176,13 +7325,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>250</v>
-      </c>
-      <c r="B100" s="1">
-        <v>73</v>
+        <v>582</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>581</v>
       </c>
       <c r="C100" t="s">
-        <v>58</v>
+        <v>397</v>
       </c>
       <c r="D100" t="s">
         <v>1</v>
@@ -7190,7 +7339,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B101" s="1">
         <v>73</v>
@@ -7204,13 +7353,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B102" s="1">
         <v>73</v>
       </c>
       <c r="C102" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="D102" t="s">
         <v>1</v>
@@ -7218,13 +7367,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B103" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C103" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D103" t="s">
         <v>1</v>
@@ -7232,13 +7381,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B104" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C104" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D104" t="s">
         <v>1</v>
@@ -7246,13 +7395,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>373</v>
+        <v>252</v>
       </c>
       <c r="B105" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C105" t="s">
-        <v>410</v>
+        <v>58</v>
       </c>
       <c r="D105" t="s">
         <v>1</v>
@@ -7260,10 +7409,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B106" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C106" t="s">
         <v>58</v>
@@ -7274,27 +7423,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>256</v>
+        <v>373</v>
       </c>
       <c r="B107" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C107" t="s">
-        <v>58</v>
+        <v>410</v>
       </c>
       <c r="D107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B108" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C108" t="s">
-        <v>346</v>
+        <v>58</v>
       </c>
       <c r="D108" t="s">
         <v>1</v>
@@ -7302,27 +7451,27 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B109" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C109" t="s">
         <v>58</v>
       </c>
       <c r="D109" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B110" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C110" t="s">
-        <v>58</v>
+        <v>346</v>
       </c>
       <c r="D110" t="s">
         <v>1</v>
@@ -7330,13 +7479,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B111" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="D111" t="s">
         <v>1</v>
@@ -7344,13 +7493,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B112" s="1">
         <v>65</v>
       </c>
       <c r="C112" t="s">
-        <v>384</v>
+        <v>58</v>
       </c>
       <c r="D112" t="s">
         <v>1</v>
@@ -7358,41 +7507,41 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>263</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>52</v>
+        <v>260</v>
+      </c>
+      <c r="B113" s="1">
+        <v>65</v>
       </c>
       <c r="C113" t="s">
         <v>124</v>
       </c>
       <c r="D113" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>264</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>52</v>
+        <v>261</v>
+      </c>
+      <c r="B114" s="1">
+        <v>65</v>
       </c>
       <c r="C114" t="s">
-        <v>438</v>
+        <v>384</v>
       </c>
       <c r="D114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>598</v>
+        <v>263</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C115" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D115" t="s">
         <v>2</v>
@@ -7400,13 +7549,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>616</v>
+        <v>264</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C116" t="s">
-        <v>124</v>
+        <v>438</v>
       </c>
       <c r="D116" t="s">
         <v>2</v>
@@ -7414,15 +7563,71 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C117" t="s">
+        <v>58</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>616</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" t="s">
+        <v>124</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>617</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C119" t="s">
         <v>403</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>641</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C120" t="s">
+        <v>636</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>643</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C121" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7433,10 +7638,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7490,7 +7695,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>633</v>
       </c>
       <c r="B4" s="1">
         <v>96</v>
@@ -7504,10 +7709,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B5" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
         <v>391</v>
@@ -7518,7 +7723,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B6" s="1">
         <v>94</v>
@@ -7532,27 +7737,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>563</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>628</v>
+        <v>272</v>
+      </c>
+      <c r="B7" s="1">
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>273</v>
-      </c>
-      <c r="B8" s="1">
-        <v>93</v>
+        <v>563</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>628</v>
       </c>
       <c r="C8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -7560,13 +7765,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B9" s="1">
         <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -7574,13 +7779,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B10" s="1">
         <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -7588,10 +7793,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B11" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
         <v>391</v>
@@ -7602,13 +7807,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="B12" s="1">
         <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>391</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -7616,13 +7821,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="B13" s="1">
         <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
@@ -7630,13 +7835,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B14" s="1">
         <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
@@ -7644,41 +7849,41 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>614</v>
+        <v>277</v>
       </c>
       <c r="B15" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>613</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="B16" s="1">
         <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>604</v>
       </c>
       <c r="B17" s="1">
         <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>400</v>
+        <v>595</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
@@ -7686,13 +7891,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B18" s="1">
         <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -7700,13 +7905,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B19" s="1">
         <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>385</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
@@ -7714,7 +7919,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>445</v>
+        <v>280</v>
       </c>
       <c r="B20" s="1">
         <v>91</v>
@@ -7723,12 +7928,12 @@
         <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>281</v>
+        <v>445</v>
       </c>
       <c r="B21" s="1">
         <v>91</v>
@@ -7737,18 +7942,18 @@
         <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B22" s="1">
         <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
@@ -7756,41 +7961,41 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B23" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>391</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B24" s="1">
         <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B25" s="1">
         <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
@@ -7798,13 +8003,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>603</v>
+        <v>285</v>
       </c>
       <c r="B26" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>595</v>
+        <v>413</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
@@ -7812,13 +8017,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>286</v>
+        <v>603</v>
       </c>
       <c r="B27" s="1">
         <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>400</v>
+        <v>595</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -7826,41 +8031,41 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B28" s="1">
         <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>400</v>
       </c>
       <c r="D28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>288</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>564</v>
+        <v>287</v>
+      </c>
+      <c r="B29" s="1">
+        <v>89</v>
       </c>
       <c r="C29" t="s">
         <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>289</v>
-      </c>
-      <c r="B30" s="1">
-        <v>89</v>
+        <v>288</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
@@ -7868,7 +8073,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B31" s="1">
         <v>89</v>
@@ -7882,35 +8087,35 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B32" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>419</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B33" s="1">
         <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>419</v>
       </c>
       <c r="D33" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B34" s="1">
         <v>88</v>
@@ -7924,7 +8129,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B35" s="1">
         <v>88</v>
@@ -7938,7 +8143,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B36" s="1">
         <v>88</v>
@@ -7952,13 +8157,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B37" s="1">
         <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>403</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
@@ -7966,13 +8171,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B38" s="1">
         <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>403</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
@@ -7980,13 +8185,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B39" s="1">
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>403</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
@@ -7994,41 +8199,41 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B40" s="1">
         <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>403</v>
       </c>
       <c r="D40" t="s">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>454</v>
+        <v>299</v>
       </c>
       <c r="B41" s="1">
         <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>393</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>301</v>
+        <v>454</v>
       </c>
       <c r="B42" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>393</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
@@ -8036,13 +8241,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="B43" s="1">
         <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>404</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
         <v>1</v>
@@ -8050,13 +8255,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>565</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>555</v>
+        <v>375</v>
+      </c>
+      <c r="B44" s="1">
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
@@ -8064,13 +8269,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>455</v>
-      </c>
-      <c r="B45" s="1">
-        <v>87</v>
+        <v>565</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>555</v>
       </c>
       <c r="C45" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
@@ -8078,13 +8283,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>302</v>
+        <v>455</v>
       </c>
       <c r="B46" s="1">
         <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -8092,13 +8297,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>601</v>
+        <v>302</v>
       </c>
       <c r="B47" s="1">
         <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>595</v>
+        <v>427</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
@@ -8106,13 +8311,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>303</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>629</v>
+        <v>601</v>
+      </c>
+      <c r="B48" s="1">
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>595</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
@@ -8120,13 +8325,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>304</v>
-      </c>
-      <c r="B49" s="1">
-        <v>87</v>
+        <v>303</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>629</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
         <v>1</v>
@@ -8134,13 +8339,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B50" s="1">
         <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>403</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
         <v>1</v>
@@ -8148,13 +8353,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B51" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D51" t="s">
         <v>1</v>
@@ -8162,41 +8367,41 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B52" s="1">
         <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>566</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>557</v>
+        <v>307</v>
+      </c>
+      <c r="B53" s="1">
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>419</v>
       </c>
       <c r="D53" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>308</v>
-      </c>
-      <c r="B54" s="1">
-        <v>86</v>
+        <v>566</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>557</v>
       </c>
       <c r="C54" t="s">
-        <v>427</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
         <v>1</v>
@@ -8204,13 +8409,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B55" s="1">
         <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D55" t="s">
         <v>1</v>
@@ -8218,13 +8423,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B56" s="1">
         <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>426</v>
       </c>
       <c r="D56" t="s">
         <v>1</v>
@@ -8232,7 +8437,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B57" s="1">
         <v>86</v>
@@ -8246,13 +8451,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>377</v>
+        <v>311</v>
       </c>
       <c r="B58" s="1">
         <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>388</v>
+        <v>124</v>
       </c>
       <c r="D58" t="s">
         <v>1</v>
@@ -8260,13 +8465,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B59" s="1">
         <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
@@ -8274,13 +8479,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>312</v>
+        <v>376</v>
       </c>
       <c r="B60" s="1">
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>403</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
@@ -8288,13 +8493,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B61" s="1">
         <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>440</v>
+        <v>58</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
@@ -8302,13 +8507,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B62" s="1">
         <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
@@ -8316,13 +8521,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>587</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>630</v>
+        <v>314</v>
+      </c>
+      <c r="B63" s="1">
+        <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
@@ -8330,27 +8535,27 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>315</v>
-      </c>
-      <c r="B64" s="1">
-        <v>85</v>
+        <v>587</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="C64" t="s">
         <v>423</v>
       </c>
       <c r="D64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B65" s="1">
         <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D65" t="s">
         <v>2</v>
@@ -8358,55 +8563,55 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B66" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>430</v>
       </c>
       <c r="D66" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>602</v>
+        <v>317</v>
       </c>
       <c r="B67" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>595</v>
+        <v>58</v>
       </c>
       <c r="D67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>319</v>
+        <v>602</v>
       </c>
       <c r="B68" s="1">
         <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>595</v>
       </c>
       <c r="D68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>456</v>
+        <v>319</v>
       </c>
       <c r="B69" s="1">
         <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>387</v>
+        <v>124</v>
       </c>
       <c r="D69" t="s">
         <v>1</v>
@@ -8414,41 +8619,41 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="B70" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>58</v>
+        <v>387</v>
       </c>
       <c r="D70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>568</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>631</v>
+        <v>446</v>
+      </c>
+      <c r="B71" s="1">
+        <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>404</v>
+        <v>58</v>
       </c>
       <c r="D71" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>569</v>
-      </c>
-      <c r="B72" s="1">
-        <v>82</v>
+        <v>568</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>631</v>
       </c>
       <c r="C72" t="s">
-        <v>58</v>
+        <v>404</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
@@ -8456,13 +8661,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>378</v>
+        <v>569</v>
       </c>
       <c r="B73" s="1">
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>388</v>
+        <v>58</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
@@ -8470,13 +8675,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>320</v>
+        <v>378</v>
       </c>
       <c r="B74" s="1">
         <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>124</v>
+        <v>388</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
@@ -8484,41 +8689,41 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B75" s="1">
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B76" s="1">
         <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D76" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B77" s="1">
         <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D77" t="s">
         <v>1</v>
@@ -8526,27 +8731,27 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B78" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="D78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="B79" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>326</v>
+        <v>124</v>
       </c>
       <c r="D79" t="s">
         <v>2</v>
@@ -8554,7 +8759,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="B80" s="1">
         <v>80</v>
@@ -8563,18 +8768,18 @@
         <v>326</v>
       </c>
       <c r="D80" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B81" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>427</v>
+        <v>326</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
@@ -8582,7 +8787,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B82" s="1">
         <v>79</v>
@@ -8596,13 +8801,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B83" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>58</v>
+        <v>427</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
@@ -8610,13 +8815,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B84" s="1">
         <v>78</v>
       </c>
       <c r="C84" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="D84" t="s">
         <v>1</v>
@@ -8624,10 +8829,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>331</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>567</v>
+        <v>330</v>
+      </c>
+      <c r="B85" s="1">
+        <v>78</v>
       </c>
       <c r="C85" t="s">
         <v>124</v>
@@ -8638,13 +8843,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>332</v>
-      </c>
-      <c r="B86" s="1">
-        <v>77</v>
+        <v>331</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="C86" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D86" t="s">
         <v>1</v>
@@ -8652,13 +8857,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B87" s="1">
         <v>77</v>
       </c>
       <c r="C87" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="D87" t="s">
         <v>1</v>
@@ -8666,7 +8871,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B88" s="1">
         <v>77</v>
@@ -8680,7 +8885,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="B89" s="1">
         <v>77</v>
@@ -8689,60 +8894,60 @@
         <v>124</v>
       </c>
       <c r="D89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="B90" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C90" t="s">
         <v>124</v>
       </c>
       <c r="D90" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B91" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C91" t="s">
-        <v>425</v>
+        <v>124</v>
       </c>
       <c r="D91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>449</v>
+        <v>336</v>
       </c>
       <c r="B92" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C92" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="D92" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>337</v>
+        <v>449</v>
       </c>
       <c r="B93" s="1">
         <v>74</v>
       </c>
       <c r="C93" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="D93" t="s">
         <v>1</v>
@@ -8750,13 +8955,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B94" s="1">
         <v>74</v>
       </c>
       <c r="C94" t="s">
-        <v>124</v>
+        <v>428</v>
       </c>
       <c r="D94" t="s">
         <v>1</v>
@@ -8764,13 +8969,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B95" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s">
-        <v>411</v>
+        <v>124</v>
       </c>
       <c r="D95" t="s">
         <v>1</v>
@@ -8778,13 +8983,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B96" s="1">
         <v>73</v>
       </c>
       <c r="C96" t="s">
-        <v>58</v>
+        <v>411</v>
       </c>
       <c r="D96" t="s">
         <v>1</v>
@@ -8792,13 +8997,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B97" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C97" t="s">
-        <v>394</v>
+        <v>58</v>
       </c>
       <c r="D97" t="s">
         <v>1</v>
@@ -8806,13 +9011,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B98" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C98" t="s">
-        <v>58</v>
+        <v>394</v>
       </c>
       <c r="D98" t="s">
         <v>1</v>
@@ -8820,7 +9025,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B99" s="1">
         <v>70</v>
@@ -8829,32 +9034,32 @@
         <v>58</v>
       </c>
       <c r="D99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>478</v>
+        <v>343</v>
       </c>
       <c r="B100" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C100" t="s">
         <v>58</v>
       </c>
       <c r="D100" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>344</v>
+        <v>478</v>
       </c>
       <c r="B101" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C101" t="s">
-        <v>346</v>
+        <v>58</v>
       </c>
       <c r="D101" t="s">
         <v>1</v>
@@ -8862,13 +9067,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="B102" s="1">
         <v>68</v>
       </c>
       <c r="C102" t="s">
-        <v>59</v>
+        <v>346</v>
       </c>
       <c r="D102" t="s">
         <v>1</v>
@@ -8876,27 +9081,27 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="B103" s="1">
         <v>68</v>
       </c>
       <c r="C103" t="s">
-        <v>429</v>
+        <v>59</v>
       </c>
       <c r="D103" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B104" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C104" t="s">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="D104" t="s">
         <v>2</v>
@@ -8904,27 +9109,27 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B105" s="1">
         <v>67</v>
       </c>
       <c r="C105" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="D105" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B106" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C106" t="s">
-        <v>58</v>
+        <v>432</v>
       </c>
       <c r="D106" t="s">
         <v>1</v>
@@ -8932,13 +9137,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B107" s="1">
         <v>66</v>
       </c>
       <c r="C107" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="D107" t="s">
         <v>1</v>
@@ -8946,13 +9151,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="B108" s="1">
         <v>66</v>
       </c>
       <c r="C108" t="s">
-        <v>387</v>
+        <v>124</v>
       </c>
       <c r="D108" t="s">
         <v>1</v>
@@ -8960,13 +9165,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="B109" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C109" t="s">
-        <v>124</v>
+        <v>387</v>
       </c>
       <c r="D109" t="s">
         <v>1</v>
@@ -8974,55 +9179,55 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B110" s="1">
         <v>65</v>
       </c>
       <c r="C110" t="s">
-        <v>441</v>
+        <v>124</v>
       </c>
       <c r="D110" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B111" s="1">
         <v>65</v>
       </c>
       <c r="C111" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="D111" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>181</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>420</v>
+        <v>353</v>
+      </c>
+      <c r="B112" s="1">
+        <v>65</v>
+      </c>
+      <c r="C112" t="s">
+        <v>384</v>
       </c>
       <c r="D112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>600</v>
+        <v>181</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C113" t="s">
-        <v>438</v>
+      <c r="C113" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="D113" t="s">
         <v>2</v>
@@ -9030,15 +9235,71 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C114" t="s">
-        <v>124</v>
+        <v>438</v>
       </c>
       <c r="D114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>599</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115" t="s">
+        <v>124</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>634</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C116" t="s">
+        <v>55</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>639</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117" t="s">
+        <v>636</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>640</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" t="s">
+        <v>636</v>
+      </c>
+      <c r="D118" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Tier List.xlsx
+++ b/Tier List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="783">
   <si>
     <t>[Morse](https://game8.jp/archives/93206)</t>
   </si>
@@ -187,21 +187,9 @@
     <t>Sword Ranking Ticket</t>
   </si>
   <si>
-    <t>Ultimate Wizard Quest</t>
-  </si>
-  <si>
-    <t>Ghost Store</t>
-  </si>
-  <si>
     <t>Ghost Shop</t>
   </si>
   <si>
-    <t>Wizard Quest</t>
-  </si>
-  <si>
-    <t>Anniversary Quest</t>
-  </si>
-  <si>
     <t>[Schrodinger UA](https://game8.jp/archives/106354)</t>
   </si>
   <si>
@@ -394,9 +382,6 @@
     <t>[Ibarahime/Sleeping Beauty](https://game8.jp/archives/140951)</t>
   </si>
   <si>
-    <t>Permanent Hatcher</t>
-  </si>
-  <si>
     <t>[Antoinette](https://game8.jp/archives/73323)</t>
   </si>
   <si>
@@ -994,9 +979,6 @@
     <t>[Yue Lao](https://game8.jp/archives/114428)</t>
   </si>
   <si>
-    <t>Limited Quest</t>
-  </si>
-  <si>
     <t>[Kagamine Rin Vocaloid Collab](https://game8.jp/archives/43713)</t>
   </si>
   <si>
@@ -1054,9 +1036,6 @@
     <t>[Nimda](https://game8.jp/archives/41784)</t>
   </si>
   <si>
-    <t>Link Hatcher</t>
-  </si>
-  <si>
     <t>[Tesla](https://game8.jp/archives/29764)</t>
   </si>
   <si>
@@ -1075,9 +1054,6 @@
     <t>[Jaro](https://game8.jp/archives/151359)</t>
   </si>
   <si>
-    <t>Story Quest</t>
-  </si>
-  <si>
     <t>[Garuda](https://game8.jp/archives/146265)</t>
   </si>
   <si>
@@ -1165,66 +1141,15 @@
     <t>AI Customize Unit</t>
   </si>
   <si>
-    <t>Bridal Event Hatcher</t>
-  </si>
-  <si>
-    <t>Bridal Event Quest</t>
-  </si>
-  <si>
-    <t>Christmas Event Hatcher</t>
-  </si>
-  <si>
-    <t>Christmas Ranking Hatcher</t>
-  </si>
-  <si>
-    <t>Christmas Event Quest</t>
-  </si>
-  <si>
     <t>8M Downloads Event</t>
   </si>
   <si>
-    <t>Festival Hatcher</t>
-  </si>
-  <si>
-    <t>FMA Collab Quest</t>
-  </si>
-  <si>
-    <t>BC Collab Hatcher</t>
-  </si>
-  <si>
-    <t>BC Collab Quest</t>
-  </si>
-  <si>
-    <t>Tanabata Event Quest</t>
-  </si>
-  <si>
-    <t>Tanabata Event Hatcher</t>
-  </si>
-  <si>
-    <t>ToS Collab Quest</t>
-  </si>
-  <si>
-    <t>ToS Collab Hatcher</t>
-  </si>
-  <si>
-    <t>Spring Event Quest</t>
-  </si>
-  <si>
-    <t>Spring Event Hatcher</t>
-  </si>
-  <si>
     <t>1st Queen's Tower</t>
   </si>
   <si>
     <t>2nd Queen's Tower</t>
   </si>
   <si>
-    <t>Ranking Hatcher</t>
-  </si>
-  <si>
-    <t>Regional Festival</t>
-  </si>
-  <si>
     <t>Sanrio Collab</t>
   </si>
   <si>
@@ -1234,102 +1159,15 @@
     <t>Staff Ranking Ticket</t>
   </si>
   <si>
-    <t>KoF Collab Quest</t>
-  </si>
-  <si>
-    <t>KoF Collab Hatcher</t>
-  </si>
-  <si>
-    <t>KoF Collab Ticket Hatcher</t>
-  </si>
-  <si>
-    <t>White Day Event Quest</t>
-  </si>
-  <si>
-    <t>White Day Event Hatcher</t>
-  </si>
-  <si>
-    <t>Valentine's Event Hatcher</t>
-  </si>
-  <si>
-    <t>Valentine's Event Quest</t>
-  </si>
-  <si>
-    <t>KoF Collab Ultimate Quest</t>
-  </si>
-  <si>
-    <t>ToS Collab Ultimate Quest</t>
-  </si>
-  <si>
-    <t>BC Collab Ultimate Quest</t>
-  </si>
-  <si>
-    <t>FMA Collab Hatcher</t>
-  </si>
-  <si>
-    <t>Summer Hatcher</t>
-  </si>
-  <si>
-    <t>AoT Collab Hatcher</t>
-  </si>
-  <si>
-    <t>AoT Collab Quest</t>
-  </si>
-  <si>
-    <t>Summer Event Hatcher</t>
-  </si>
-  <si>
-    <t>Halloween Event Hatcher</t>
-  </si>
-  <si>
-    <t>Halloween Event Quest</t>
-  </si>
-  <si>
-    <t>Vocaloid Collab Ultimate Quest</t>
-  </si>
-  <si>
-    <t>Vocaloid Collab Hatcher</t>
-  </si>
-  <si>
-    <t>Vocaloid Collab Quest</t>
-  </si>
-  <si>
-    <t>Virus Link Hatcher</t>
-  </si>
-  <si>
-    <t>DRRR Collab Hatcher</t>
-  </si>
-  <si>
-    <t>DRRR Collab Quest</t>
-  </si>
-  <si>
-    <t>New Year's Quest</t>
-  </si>
-  <si>
-    <t>New Years Quest</t>
-  </si>
-  <si>
     <t>[Louis XVI/Louis 16 of the World](https://game8.jp/archives/73139)</t>
   </si>
   <si>
-    <t>Anniversary Hatcher</t>
-  </si>
-  <si>
     <t>Vocaloid Collab</t>
   </si>
   <si>
-    <t>Event Wizard Quest</t>
-  </si>
-  <si>
-    <t>Summer Event Quest</t>
-  </si>
-  <si>
     <t>BC Collab</t>
   </si>
   <si>
-    <t>Vocaloid Event Quest</t>
-  </si>
-  <si>
     <t>Downloads Event</t>
   </si>
   <si>
@@ -1636,9 +1474,6 @@
     <t>Chang Koehan</t>
   </si>
   <si>
-    <t>Good Units to Keep for Low Cost Quests</t>
-  </si>
-  <si>
     <t>Bridal Amala</t>
   </si>
   <si>
@@ -1666,9 +1501,6 @@
     <t>[78]</t>
   </si>
   <si>
-    <t>Ying Zheng</t>
-  </si>
-  <si>
     <t>[87]</t>
   </si>
   <si>
@@ -1738,18 +1570,12 @@
     <t>Circe</t>
   </si>
   <si>
-    <t>Summer Confucius</t>
-  </si>
-  <si>
     <t>Summer Zheng Chenggong</t>
   </si>
   <si>
     <t>Summer Han Xiangzi</t>
   </si>
   <si>
-    <t>Summer Event Ultimate Quest</t>
-  </si>
-  <si>
     <t>[Holmes](https://game8.jp/archives/168137)</t>
   </si>
   <si>
@@ -1759,15 +1585,6 @@
     <t>[Akechi Kogoro](https://game8.jp/archives/168136)</t>
   </si>
   <si>
-    <t>Matsuri Event Hatcher</t>
-  </si>
-  <si>
-    <t>Matsuri Event Quest</t>
-  </si>
-  <si>
-    <t>Matsuri Event Ultimate Quest</t>
-  </si>
-  <si>
     <t>[M. Dragon](https://game8.jp/archives/161942)</t>
   </si>
   <si>
@@ -1813,9 +1630,6 @@
     <t>[Excalibur](https://game8.jp/archives/168986)</t>
   </si>
   <si>
-    <t>Sword Ver. 2 Ranking Ticket</t>
-  </si>
-  <si>
     <t>[Balmung](https://game8.jp/archives/168993)</t>
   </si>
   <si>
@@ -1858,9 +1672,6 @@
     <t>[Chelsea](https://game8.jp/archives/171424)</t>
   </si>
   <si>
-    <t>School Event Hatcher</t>
-  </si>
-  <si>
     <t>[School Festival Antoinette](https://game8.jp/archives/171422)</t>
   </si>
   <si>
@@ -1888,9 +1699,6 @@
     <t>[School Festival Shoki](https://game8.jp/archives/174191)</t>
   </si>
   <si>
-    <t>School Event Quest</t>
-  </si>
-  <si>
     <t>[Japanese Clothing Shoki](https://game8.jp/archives/174192)</t>
   </si>
   <si>
@@ -1909,9 +1717,6 @@
     <t>[School Festival Takenaka Hanbei](https://game8.jp/archives/175059)</t>
   </si>
   <si>
-    <t>School Event Ultimate Quest</t>
-  </si>
-  <si>
     <t>[Legato](https://game8.jp/archives/175060)</t>
   </si>
   <si>
@@ -1939,27 +1744,18 @@
     <t>[Hacka Doll 2](https://game8.jp/archives/176747)</t>
   </si>
   <si>
-    <t>Hacka Doll Collab Ticket Hatcher</t>
-  </si>
-  <si>
     <t>[Synced To You Hacka Doll 1](https://game8.jp/archives/176746)</t>
   </si>
   <si>
     <t>[Hacka Doll 3](https://game8.jp/archives/176750)</t>
   </si>
   <si>
-    <t>Hacka Doll Collab Quest</t>
-  </si>
-  <si>
     <t>[Hacka Doll 1](https://game8.jp/archives/176749)</t>
   </si>
   <si>
     <t>[Samhain](https://game8.jp/archives/178813)</t>
   </si>
   <si>
-    <t>Halloween 2 Event Hatcher</t>
-  </si>
-  <si>
     <t>[Perry](https://game8.jp/archives/178306)</t>
   </si>
   <si>
@@ -1993,9 +1789,6 @@
     <t>[Hel Halloween Ver.](https://game8.jp/archives/178808)</t>
   </si>
   <si>
-    <t>Halloween 2 Event Quest</t>
-  </si>
-  <si>
     <t>[Hel Kitten Ver.](https://game8.jp/archives/178810)</t>
   </si>
   <si>
@@ -2017,9 +1810,6 @@
     <t>[Loki Halloween Ver.](https://game8.jp/archives/179248)</t>
   </si>
   <si>
-    <t>Halloween 2 Event Ultimate Quest</t>
-  </si>
-  <si>
     <t>[Loki Chemist Ver.](https://game8.jp/archives/179247)</t>
   </si>
   <si>
@@ -2095,15 +1885,9 @@
     <t>Cthulhu Event Reward</t>
   </si>
   <si>
-    <t>Cthulhu Event Hatcher</t>
-  </si>
-  <si>
     <t>Yog-Sothoth</t>
   </si>
   <si>
-    <t>Cthulhu Event Ultimate Quest</t>
-  </si>
-  <si>
     <t>[Rutherford](https://game8.jp/crashfever/181696)</t>
   </si>
   <si>
@@ -2113,9 +1897,6 @@
     <t>[Megumin](https://game8.jp/crashfever/182708)</t>
   </si>
   <si>
-    <t>Konosuba Collab Hatcher</t>
-  </si>
-  <si>
     <t>[Aqua](https://game8.jp/crashfever/182709)</t>
   </si>
   <si>
@@ -2131,15 +1912,9 @@
     <t>[Vanir](https://game8.jp/crashfever/182714)</t>
   </si>
   <si>
-    <t>Konosuba Collab Ultimate Quest</t>
-  </si>
-  <si>
     <t>[Dullahan](https://game8.jp/crashfever/182713)</t>
   </si>
   <si>
-    <t>Konosuba Collab Quest</t>
-  </si>
-  <si>
     <t>[Aqua Pajama Ver.](https://game8.jp/crashfever/182892)</t>
   </si>
   <si>
@@ -2149,9 +1924,6 @@
     <t>[Eris](https://game8.jp/crashfever/182890)</t>
   </si>
   <si>
-    <t>Konosuba Collab Ticket Hatcher</t>
-  </si>
-  <si>
     <t>[Kazuma](https://game8.jp/crashfever/182712)</t>
   </si>
   <si>
@@ -2197,9 +1969,6 @@
     <t>91 [90]</t>
   </si>
   <si>
-    <t>88 [93]</t>
-  </si>
-  <si>
     <t>91 [92]</t>
   </si>
   <si>
@@ -2224,9 +1993,6 @@
     <t>[Urashima](https://game8.jp/crashfever/37506)</t>
   </si>
   <si>
-    <t>Material Quest</t>
-  </si>
-  <si>
     <t>[Janghwa](https://game8.jp/crashfever/185756)</t>
   </si>
   <si>
@@ -2251,9 +2017,6 @@
     <t>9M Downloads Event</t>
   </si>
   <si>
-    <t>9M Downloads Quest</t>
-  </si>
-  <si>
     <t>[Summer He Xiangu](https://game8.jp/crashfever/185198)</t>
   </si>
   <si>
@@ -2261,6 +2024,360 @@
   </si>
   <si>
     <t>[Diaochan](https://game8.jp/archives/91605)</t>
+  </si>
+  <si>
+    <t>[Summer Confucius](https://game8.jp/crashfever/190062)</t>
+  </si>
+  <si>
+    <t>95 [94]</t>
+  </si>
+  <si>
+    <t>[Pascal](https://game8.jp/crashfever/187393)</t>
+  </si>
+  <si>
+    <t>[Poinsettia](https://game8.jp/crashfever/190063)</t>
+  </si>
+  <si>
+    <t>[The Fiend With 20 Faces](https://game8.jp/crashfever/168146)</t>
+  </si>
+  <si>
+    <t>94 [93]</t>
+  </si>
+  <si>
+    <t>[Colleen](https://game8.jp/crashfever/191658)</t>
+  </si>
+  <si>
+    <t>[Duduri (Hacka Doll Reskin)](https://game8.jp/archives/176750)</t>
+  </si>
+  <si>
+    <t>[Snakeskin Moonwhite Ig (Hacka Doll Reskin)](https://game8.jp/archives/176746)</t>
+  </si>
+  <si>
+    <t>[Taiho Mask (Hacka Doll Reskin)](https://game8.jp/archives/176747)</t>
+  </si>
+  <si>
+    <t>[Edmond Dantes (Hacka Doll Reskin)](https://game8.jp/archives/176749)</t>
+  </si>
+  <si>
+    <t>[Christmas Boole](https://game8.jp/crashfever/191662)</t>
+  </si>
+  <si>
+    <t>[Christmas Touka](https://game8.jp/crashfever/191663)</t>
+  </si>
+  <si>
+    <t>[Christmas Holmes](https://game8.jp/crashfever/191664)</t>
+  </si>
+  <si>
+    <t>[Siegfried](https://game8.jp/crashfever/28736)</t>
+  </si>
+  <si>
+    <t>[Tristan](https://game8.jp/crashfever/39798)</t>
+  </si>
+  <si>
+    <t>[Christmas Lupin](https://game8.jp/crashfever/194024)</t>
+  </si>
+  <si>
+    <t>[Corin](https://game8.jp/crashfever/191658)</t>
+  </si>
+  <si>
+    <t>[Christmas Fermat](https://game8.jp/crashfever/191659)</t>
+  </si>
+  <si>
+    <t>[Christmas Senko](https://game8.jp/crashfever/191660)</t>
+  </si>
+  <si>
+    <t>[Christmas Natsume Soseki](https://game8.jp/crashfever/191661)</t>
+  </si>
+  <si>
+    <t>Christmas Event Gift</t>
+  </si>
+  <si>
+    <t>[Ying Zheng](https://game8.jp/crashfever/195809)</t>
+  </si>
+  <si>
+    <t>[Gift Box - Mini Demia](https://game8.jp/crashfever/195954)</t>
+  </si>
+  <si>
+    <t>[Uriel](https://game8.jp/crashfever/30137)</t>
+  </si>
+  <si>
+    <t>[Gabriel](https://game8.jp/crashfever/30136)</t>
+  </si>
+  <si>
+    <t>[Raphael](https://game8.jp/crashfever/30138)</t>
+  </si>
+  <si>
+    <t>[New Year Susanoo](https://game8.jp/crashfever/196411)</t>
+  </si>
+  <si>
+    <t>[New Year Fenrir](https://game8.jp/crashfever/196410)</t>
+  </si>
+  <si>
+    <t>[New Year Belial](https://game8.jp/crashfever/196409)</t>
+  </si>
+  <si>
+    <t>[New Year Maclaurin](https://game8.jp/crashfever/196483)</t>
+  </si>
+  <si>
+    <t>[New Year Fondue](https://game8.jp/crashfever/196482)</t>
+  </si>
+  <si>
+    <t>[New Year Dalton](https://game8.jp/crashfever/196485)</t>
+  </si>
+  <si>
+    <t>[New Year Fahrenheit](https://game8.jp/crashfever/196484)</t>
+  </si>
+  <si>
+    <t>[New Year Ryunosuke Akutagawa](https://game8.jp/crashfever/196479)</t>
+  </si>
+  <si>
+    <t>[New Year Galois](https://game8.jp/crashfever/196481)</t>
+  </si>
+  <si>
+    <t>[New Year Euclid](https://game8.jp/crashfever/196480)</t>
+  </si>
+  <si>
+    <t>[New Year Lawrence](https://game8.jp/crashfever/196478)</t>
+  </si>
+  <si>
+    <t>Anniversary (H)</t>
+  </si>
+  <si>
+    <t>AoT Collab (H)</t>
+  </si>
+  <si>
+    <t>BC Collab (H)</t>
+  </si>
+  <si>
+    <t>Bridal Event (H)</t>
+  </si>
+  <si>
+    <t>Christmas Event (H)</t>
+  </si>
+  <si>
+    <t>Christmas Ranking (H)</t>
+  </si>
+  <si>
+    <t>DRRR Collab (H)</t>
+  </si>
+  <si>
+    <t>Festival (H)</t>
+  </si>
+  <si>
+    <t>FMA Collab (H)</t>
+  </si>
+  <si>
+    <t>Halloween Event (H)</t>
+  </si>
+  <si>
+    <t>KoF Collab (H)</t>
+  </si>
+  <si>
+    <t>KoF Collab Ticket (H)</t>
+  </si>
+  <si>
+    <t>Link (H)</t>
+  </si>
+  <si>
+    <t>Matsuri Event (H)</t>
+  </si>
+  <si>
+    <t>Permanent (H)</t>
+  </si>
+  <si>
+    <t>Ranking (H)</t>
+  </si>
+  <si>
+    <t>Spring Event (H)</t>
+  </si>
+  <si>
+    <t>Summer Event (H)</t>
+  </si>
+  <si>
+    <t>Tanabata Event (H)</t>
+  </si>
+  <si>
+    <t>ToS Collab (H)</t>
+  </si>
+  <si>
+    <t>Valentine's Event (H)</t>
+  </si>
+  <si>
+    <t>Virus Link (H)</t>
+  </si>
+  <si>
+    <t>Vocaloid Collab (H)</t>
+  </si>
+  <si>
+    <t>White Day Event (H)</t>
+  </si>
+  <si>
+    <t>Konosuba Collab (H)</t>
+  </si>
+  <si>
+    <t>Halloween 2 Event (H)</t>
+  </si>
+  <si>
+    <t>School Event (H)</t>
+  </si>
+  <si>
+    <t>Hacka Doll Collab Ticket (H)</t>
+  </si>
+  <si>
+    <t>TMT Event Ticket (H)</t>
+  </si>
+  <si>
+    <t>New Year Event (H)</t>
+  </si>
+  <si>
+    <t>Summer (H)</t>
+  </si>
+  <si>
+    <t>Cthulhu Event (H)</t>
+  </si>
+  <si>
+    <t>Konosuba Collab Ticket (H)</t>
+  </si>
+  <si>
+    <t>Anniversary (Q)</t>
+  </si>
+  <si>
+    <t>AoT Collab (Q)</t>
+  </si>
+  <si>
+    <t>BC Collab (Q)</t>
+  </si>
+  <si>
+    <t>BC Collab Ultimate (Q)</t>
+  </si>
+  <si>
+    <t>Bridal Event (Q)</t>
+  </si>
+  <si>
+    <t>Christmas Event (Q)</t>
+  </si>
+  <si>
+    <t>DRRR Collab (Q)</t>
+  </si>
+  <si>
+    <t>FMA Collab (Q)</t>
+  </si>
+  <si>
+    <t>Halloween Event (Q)</t>
+  </si>
+  <si>
+    <t>KoF Collab (Q)</t>
+  </si>
+  <si>
+    <t>KoF Collab Ultimate (Q)</t>
+  </si>
+  <si>
+    <t>Matsuri Event Ultimate (Q)</t>
+  </si>
+  <si>
+    <t>Matsuri Event (Q)</t>
+  </si>
+  <si>
+    <t>New Year Event (Q)</t>
+  </si>
+  <si>
+    <t>Spring Event (Q)</t>
+  </si>
+  <si>
+    <t>Story (Q)</t>
+  </si>
+  <si>
+    <t>Summer Event (Q)</t>
+  </si>
+  <si>
+    <t>Summer Event Ultimate (Q)</t>
+  </si>
+  <si>
+    <t>Tanabata Event (Q)</t>
+  </si>
+  <si>
+    <t>ToS Collab (Q)</t>
+  </si>
+  <si>
+    <t>ToS Collab Ultimate (Q)</t>
+  </si>
+  <si>
+    <t>Ultimate Wizard (Q)</t>
+  </si>
+  <si>
+    <t>Valentine's Event (Q)</t>
+  </si>
+  <si>
+    <t>Vocaloid Collab (Q)</t>
+  </si>
+  <si>
+    <t>Vocaloid Collab Ultimate (Q)</t>
+  </si>
+  <si>
+    <t>White Day Event (Q)</t>
+  </si>
+  <si>
+    <t>Wizard (Q)</t>
+  </si>
+  <si>
+    <t>Event Wizard (Q)</t>
+  </si>
+  <si>
+    <t>School Event Ultimate (Q)</t>
+  </si>
+  <si>
+    <t>Material (Q)</t>
+  </si>
+  <si>
+    <t>School Event (Q)</t>
+  </si>
+  <si>
+    <t>Hacka Doll Collab (Q)</t>
+  </si>
+  <si>
+    <t>TMT Event (Q)</t>
+  </si>
+  <si>
+    <t>9M Downloads (Q)</t>
+  </si>
+  <si>
+    <t>Christmas Event Ultimate (Q)</t>
+  </si>
+  <si>
+    <t>Konosuba Collab (Q)</t>
+  </si>
+  <si>
+    <t>Halloween 2 Event (Q)</t>
+  </si>
+  <si>
+    <t>Konosuba Collab Ultimate (Q)</t>
+  </si>
+  <si>
+    <t>Halloween 2 Event Ultimate (Q)</t>
+  </si>
+  <si>
+    <t>Vocaloid Event (Q)</t>
+  </si>
+  <si>
+    <t>Limited (Q)</t>
+  </si>
+  <si>
+    <t>Cthulhu Event Ultimate (Q)</t>
+  </si>
+  <si>
+    <t>Good Units to Keep for Low Cost (Q)s</t>
+  </si>
+  <si>
+    <t>Sanrio Collab (H)</t>
+  </si>
+  <si>
+    <t>Regional Festival (H)</t>
+  </si>
+  <si>
+    <t>Blade Ranking Ticket</t>
+  </si>
+  <si>
+    <t>Sanrio Collab (Q)</t>
   </si>
 </sst>
 </file>
@@ -2629,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2640,352 +2757,352 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>433</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>739</v>
+        <v>661</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>703</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>736</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>413</v>
+        <v>704</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>414</v>
+        <v>737</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>431</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>386</v>
+        <v>705</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>387</v>
+        <v>738</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>410</v>
+        <v>739</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>378</v>
+        <v>706</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>379</v>
+        <v>740</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>380</v>
+        <v>707</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>382</v>
+        <v>741</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>381</v>
+        <v>708</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>422</v>
+        <v>709</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>423</v>
+        <v>742</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>411</v>
+        <v>711</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>385</v>
+        <v>743</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>416</v>
+        <v>712</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>417</v>
+        <v>744</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>402</v>
+        <v>713</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>401</v>
+        <v>745</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>403</v>
+        <v>714</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>408</v>
+        <v>746</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>341</v>
+        <v>715</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>578</v>
+        <v>747</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>577</v>
+        <v>748</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>576</v>
+        <v>716</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>424</v>
+        <v>749</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>396</v>
+        <v>718</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>397</v>
+        <v>780</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>393</v>
+        <v>719</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>392</v>
+        <v>750</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>348</v>
+        <v>751</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>430</v>
+        <v>752</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>415</v>
+        <v>720</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>572</v>
+        <v>753</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>781</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>594</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>389</v>
+        <v>721</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>388</v>
+        <v>754</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>391</v>
+        <v>722</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>390</v>
+        <v>755</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>409</v>
+        <v>756</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>757</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>406</v>
+        <v>723</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>407</v>
+        <v>758</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>421</v>
+        <v>724</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>419</v>
+        <v>725</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>420</v>
+        <v>759</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>418</v>
+        <v>760</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>405</v>
+        <v>726</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>404</v>
+        <v>761</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>762</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>429</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -2999,10 +3116,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3021,73 +3138,73 @@
         <v>98</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>537</v>
+        <v>482</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>538</v>
+        <v>483</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>397</v>
+        <v>780</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>592</v>
+        <v>531</v>
       </c>
       <c r="B3" s="8">
         <v>97</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>593</v>
+        <v>532</v>
       </c>
       <c r="B4" s="8">
         <v>96</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>594</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" s="8">
         <v>96</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6" s="8">
         <v>96</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B7" s="8">
         <v>96</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>402</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3095,54 +3212,54 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>709</v>
+        <v>633</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B9" s="8">
         <v>95</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>52</v>
+        <v>757</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>644</v>
+        <v>576</v>
       </c>
       <c r="B10" s="8">
         <v>95</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>728</v>
+        <v>651</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>602</v>
+        <v>540</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>415</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>708</v>
+        <v>632</v>
       </c>
       <c r="B12" s="4">
         <v>95</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>694</v>
+        <v>727</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3153,7 +3270,7 @@
         <v>95</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3164,7 +3281,7 @@
         <v>95</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -3175,51 +3292,51 @@
         <v>95</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="B16" s="8">
         <v>95</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>402</v>
+        <v>713</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B17" s="8">
         <v>94</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>693</v>
+        <v>621</v>
       </c>
       <c r="B18" s="4">
         <v>94</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>694</v>
+        <v>727</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B19" s="8">
         <v>94</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>52</v>
+        <v>757</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -3230,29 +3347,29 @@
         <v>94</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>717</v>
+        <v>641</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>624</v>
+        <v>560</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>397</v>
+        <v>780</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>641</v>
+        <v>574</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>624</v>
+        <v>560</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>642</v>
+        <v>728</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -3263,29 +3380,29 @@
         <v>93</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>52</v>
+        <v>757</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>434</v>
+        <v>380</v>
       </c>
       <c r="B24" s="8">
         <v>93</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>415</v>
+        <v>720</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B25" s="8">
         <v>93</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>415</v>
+        <v>720</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -3296,18 +3413,18 @@
         <v>93</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>51</v>
+        <v>781</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>677</v>
+        <v>607</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>52</v>
+        <v>757</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -3318,7 +3435,7 @@
         <v>92</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>378</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -3326,32 +3443,32 @@
         <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>665</v>
+        <v>595</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B30" s="8">
         <v>91</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B31" s="8">
         <v>91</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>398</v>
+      <c r="C31" s="3" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -3362,7 +3479,7 @@
         <v>91</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>52</v>
+        <v>757</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -3373,18 +3490,18 @@
         <v>91</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>710</v>
+        <v>634</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>408</v>
+        <v>746</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -3395,7 +3512,7 @@
         <v>90</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -3406,7 +3523,7 @@
         <v>90</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -3414,10 +3531,10 @@
         <v>19</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>668</v>
+        <v>598</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -3425,43 +3542,43 @@
         <v>18</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>668</v>
+        <v>598</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>386</v>
+        <v>705</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>627</v>
+        <v>562</v>
       </c>
       <c r="B39" s="8">
         <v>90</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>626</v>
+        <v>764</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B40" s="8">
         <v>89</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>573</v>
+        <v>515</v>
       </c>
       <c r="B41" s="8">
         <v>89</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -3472,29 +3589,29 @@
         <v>89</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>406</v>
+        <v>723</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B43" s="8">
         <v>89</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>396</v>
+        <v>718</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>570</v>
+        <v>513</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>629</v>
+        <v>564</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>415</v>
+        <v>720</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -3505,51 +3622,51 @@
         <v>88</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>628</v>
+        <v>563</v>
       </c>
       <c r="B46" s="8">
         <v>88</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>608</v>
+        <v>546</v>
       </c>
       <c r="B47" s="8">
         <v>88</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>609</v>
+        <v>729</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B48" s="8">
         <v>88</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>415</v>
+        <v>720</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B49" s="8">
         <v>88</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>397</v>
+        <v>780</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -3560,73 +3677,73 @@
         <v>88</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B51" s="8">
         <v>88</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B52" s="8">
         <v>88</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>410</v>
+        <v>739</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B53" s="8">
         <v>87</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>419</v>
+        <v>725</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B54" s="8">
         <v>87</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>416</v>
+        <v>712</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B55" s="8">
         <v>87</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>413</v>
+        <v>704</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B56" s="8">
         <v>86</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>411</v>
+        <v>711</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -3637,18 +3754,18 @@
         <v>86</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B58" s="8">
         <v>86</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>396</v>
+        <v>718</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -3659,755 +3776,854 @@
         <v>86</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>389</v>
+        <v>721</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>637</v>
+        <v>571</v>
       </c>
       <c r="B60" s="8">
         <v>86</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>636</v>
+        <v>730</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="7" t="s">
-        <v>25</v>
+      <c r="A61" s="3" t="s">
+        <v>673</v>
       </c>
       <c r="B61" s="8">
         <v>86</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>406</v>
+      <c r="C61" s="3" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="B62" s="8">
         <v>86</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>401</v>
+        <v>723</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B63" s="8">
         <v>86</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>407</v>
+        <v>745</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>667</v>
+        <v>40</v>
+      </c>
+      <c r="B64" s="8">
+        <v>86</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>121</v>
+        <v>758</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="8">
-        <v>85</v>
+        <v>15</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>597</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="B66" s="8">
         <v>85</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>396</v>
+        <v>717</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="B67" s="8">
         <v>85</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>378</v>
+        <v>718</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>599</v>
+        <v>73</v>
+      </c>
+      <c r="B68" s="8">
+        <v>85</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>382</v>
+        <v>706</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="8">
         <v>85</v>
       </c>
+      <c r="B69" s="8" t="s">
+        <v>537</v>
+      </c>
       <c r="C69" s="7" t="s">
-        <v>55</v>
+        <v>741</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B70" s="8">
         <v>85</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>121</v>
+        <v>762</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B71" s="8">
         <v>85</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>542</v>
+        <v>75</v>
+      </c>
+      <c r="B72" s="8">
+        <v>85</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>391</v>
+        <v>717</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="B73" s="8">
-        <v>83</v>
+        <v>486</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>487</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>55</v>
+        <v>722</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>74</v>
+        <v>396</v>
       </c>
       <c r="B74" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>386</v>
+        <v>762</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
-        <v>615</v>
+        <v>70</v>
       </c>
       <c r="B75" s="8">
         <v>82</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>121</v>
+        <v>705</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="B76" s="4">
+      <c r="A76" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B76" s="8">
         <v>82</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>121</v>
+      <c r="C76" s="7" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="8">
+      <c r="A77" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B77" s="4">
         <v>82</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>55</v>
+      <c r="C77" s="3" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
-        <v>635</v>
+        <v>74</v>
       </c>
       <c r="B78" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>636</v>
+        <v>762</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
-        <v>24</v>
+        <v>570</v>
       </c>
       <c r="B79" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>55</v>
+        <v>730</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="7" t="s">
-        <v>462</v>
+      <c r="A80" s="3" t="s">
+        <v>674</v>
       </c>
       <c r="B80" s="8">
-        <v>82</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>413</v>
+        <v>81</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>670</v>
+        <v>24</v>
+      </c>
+      <c r="B81" s="8">
+        <v>82</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>121</v>
+        <v>762</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>33</v>
+        <v>408</v>
       </c>
       <c r="B82" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>121</v>
+        <v>704</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
-        <v>729</v>
+      <c r="A83" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>430</v>
+        <v>717</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="B84" s="8">
         <v>81</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B85" s="8">
-        <v>80</v>
+      <c r="A85" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>542</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>55</v>
+        <v>752</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="B86" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>56</v>
+        <v>717</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B87" s="8">
         <v>80</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>55</v>
+        <v>762</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>671</v>
+        <v>345</v>
+      </c>
+      <c r="B88" s="8">
+        <v>80</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>572</v>
+        <v>736</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>669</v>
+        <v>28</v>
+      </c>
+      <c r="B89" s="8">
+        <v>80</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>379</v>
+        <v>762</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B90" s="8">
-        <v>79</v>
+        <v>397</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>601</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>121</v>
+        <v>753</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="B91" s="4">
-        <v>79</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>642</v>
+      <c r="A91" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B92" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B93" s="8">
-        <v>78</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>55</v>
+      <c r="A93" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B93" s="4">
+        <v>79</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B94" s="8">
         <v>78</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>386</v>
+        <v>717</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="B95" s="8">
         <v>78</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>401</v>
+        <v>762</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>544</v>
+        <v>80</v>
+      </c>
+      <c r="B96" s="8">
+        <v>78</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>391</v>
+        <v>705</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
-        <v>610</v>
+        <v>31</v>
       </c>
       <c r="B97" s="8">
         <v>78</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>609</v>
+        <v>745</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B98" s="8">
-        <v>78</v>
+        <v>488</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>489</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>55</v>
+        <v>722</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
-        <v>37</v>
+        <v>547</v>
       </c>
       <c r="B99" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>55</v>
+        <v>729</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B100" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>121</v>
+        <v>762</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="B101" s="8">
         <v>77</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>55</v>
+        <v>762</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="B102" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B103" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>397</v>
+        <v>762</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B104" s="8">
         <v>76</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>414</v>
+        <v>717</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B105" s="8">
         <v>76</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>121</v>
+        <v>780</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B106" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>55</v>
+        <v>737</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
-        <v>574</v>
+        <v>38</v>
       </c>
       <c r="B107" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="B108" s="8">
         <v>75</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>121</v>
+        <v>762</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="7" t="s">
-        <v>41</v>
+      <c r="A109" s="3" t="s">
+        <v>689</v>
       </c>
       <c r="B109" s="8">
-        <v>74</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>341</v>
+        <v>75</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
-        <v>42</v>
+        <v>516</v>
       </c>
       <c r="B110" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>383</v>
+        <v>717</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="B111" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>423</v>
+        <v>717</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
-        <v>351</v>
+        <v>41</v>
       </c>
       <c r="B112" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>380</v>
+        <v>715</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B113" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>425</v>
+        <v>370</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
-        <v>352</v>
+        <v>91</v>
       </c>
       <c r="B114" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>403</v>
+        <v>742</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="3" t="s">
-        <v>730</v>
+      <c r="A115" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="B115" s="8">
-        <v>70</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>731</v>
+        <v>72</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
-        <v>452</v>
+        <v>43</v>
       </c>
       <c r="B116" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>55</v>
+        <v>749</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
-        <v>426</v>
+        <v>344</v>
       </c>
       <c r="B117" s="8">
         <v>70</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>55</v>
+        <v>714</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="7" t="s">
-        <v>47</v>
+      <c r="A118" s="3" t="s">
+        <v>653</v>
       </c>
       <c r="B118" s="8">
-        <v>66</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>348</v>
+        <v>70</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
-        <v>44</v>
+        <v>398</v>
       </c>
       <c r="B119" s="8">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>121</v>
+        <v>762</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="B120" s="8">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>377</v>
+        <v>762</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B121" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>55</v>
+        <v>751</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="B122" s="8">
+        <v>65</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="B123" s="8">
+        <v>65</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>421</v>
+        <v>369</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="B124" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B124" s="8">
+        <v>65</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B125" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C124" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="B125" s="4" t="s">
+      <c r="C125" s="7" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B126" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="B126" s="4" t="s">
+      <c r="C126" s="7" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B127" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="B127" s="4" t="s">
+      <c r="C127" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>397</v>
+      <c r="C128" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -4418,10 +4634,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4434,1388 +4650,1542 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B1" s="6">
         <v>98</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>453</v>
+        <v>399</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>557</v>
+        <v>501</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>415</v>
+        <v>720</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B3" s="6">
         <v>97</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>709</v>
+        <v>633</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B5" s="4">
         <v>96</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>384</v>
+      <c r="C5" s="3" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="6">
         <v>96</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>694</v>
+      <c r="C6" s="5" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="A7" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B7" s="4">
         <v>96</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>384</v>
+      <c r="C7" s="3" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>539</v>
+        <v>400</v>
+      </c>
+      <c r="B8" s="6">
+        <v>96</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>51</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="6">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>484</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>384</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>676</v>
+        <v>104</v>
+      </c>
+      <c r="B10" s="6">
+        <v>95</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>415</v>
+        <v>710</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>101</v>
+      <c r="A11" s="3" t="s">
+        <v>667</v>
       </c>
       <c r="B11" s="6">
-        <v>94</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>121</v>
+        <v>95</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>102</v>
+        <v>401</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>720</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B13" s="6">
         <v>94</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>384</v>
+        <v>717</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>569</v>
+        <v>98</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>415</v>
+        <v>703</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>397</v>
+      <c r="A15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="6">
+        <v>94</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="6">
-        <v>94</v>
+      <c r="A16" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>666</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>384</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="6">
-        <v>94</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>386</v>
+      <c r="A17" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>121</v>
+        <v>100</v>
+      </c>
+      <c r="B18" s="6">
+        <v>94</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B19" s="6">
-        <v>93</v>
+        <v>561</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>670</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>415</v>
+        <v>764</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>561</v>
+      <c r="A20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="6">
+        <v>94</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>415</v>
+        <v>705</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="6">
-        <v>93</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>384</v>
+        <v>170</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>624</v>
+        <v>402</v>
+      </c>
+      <c r="B22" s="6">
+        <v>93</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>415</v>
+        <v>720</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>677</v>
+      <c r="A23" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>505</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>399</v>
+        <v>720</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="B24" s="4">
-        <v>92</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>52</v>
+      <c r="A24" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="6">
+        <v>93</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="6">
-        <v>92</v>
+        <v>403</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>52</v>
+        <v>720</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="B26" s="6">
+        <v>103</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B27" s="4">
         <v>92</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="6">
-        <v>91</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>55</v>
+      <c r="C27" s="3" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>459</v>
+        <v>105</v>
       </c>
       <c r="B28" s="6">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>384</v>
+        <v>757</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>112</v>
+        <v>404</v>
       </c>
       <c r="B29" s="6">
+        <v>92</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="6">
         <v>91</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>397</v>
+      <c r="C30" s="5" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="B31" s="6">
         <v>91</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>400</v>
+        <v>710</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B32" s="6">
         <v>91</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>378</v>
+        <v>757</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="6">
-        <v>91</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>384</v>
+      <c r="A33" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>115</v>
+        <v>381</v>
       </c>
       <c r="B34" s="6">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B35" s="6">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>121</v>
+        <v>706</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B36" s="6">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>52</v>
+        <v>710</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B37" s="6">
         <v>90</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>53</v>
+        <v>718</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>354</v>
+        <v>116</v>
       </c>
       <c r="B38" s="6">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>396</v>
+        <v>717</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>460</v>
+        <v>128</v>
       </c>
       <c r="B39" s="6">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>398</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B40" s="6">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>380</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>718</v>
+        <v>112</v>
+      </c>
+      <c r="B41" s="6">
+        <v>90</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>121</v>
+        <v>757</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>611</v>
+        <v>113</v>
       </c>
       <c r="B42" s="6">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>609</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>123</v>
+        <v>346</v>
       </c>
       <c r="B43" s="6">
         <v>89</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>55</v>
+        <v>718</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>124</v>
+        <v>406</v>
       </c>
       <c r="B44" s="6">
         <v>89</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>121</v>
+      <c r="C44" s="3" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B45" s="6">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>121</v>
+        <v>707</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>625</v>
+        <v>117</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>722</v>
+        <v>642</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>626</v>
+        <v>717</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>126</v>
+        <v>548</v>
       </c>
       <c r="B47" s="6">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>413</v>
+        <v>729</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>600</v>
+        <v>118</v>
+      </c>
+      <c r="B48" s="6">
+        <v>89</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>578</v>
+        <v>762</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B49" s="6">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>119</v>
+        <v>717</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B50" s="6">
         <v>88</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B51" s="6">
         <v>88</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>52</v>
+        <v>704</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="6">
-        <v>88</v>
+        <v>527</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>538</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>406</v>
+        <v>747</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>442</v>
+        <v>123</v>
       </c>
       <c r="B53" s="6">
         <v>88</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>393</v>
+        <v>717</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B54" s="6">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>412</v>
+        <v>757</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B55" s="6">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>121</v>
+        <v>723</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>132</v>
+        <v>388</v>
       </c>
       <c r="B56" s="6">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>121</v>
+        <v>719</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B57" s="6">
         <v>87</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>119</v>
+        <v>733</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>546</v>
+        <v>126</v>
+      </c>
+      <c r="B58" s="6">
+        <v>87</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>52</v>
+        <v>717</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B59" s="6">
         <v>87</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>422</v>
+        <v>717</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" s="6">
-        <v>87</v>
+      <c r="A60" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>490</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>406</v>
+        <v>757</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>439</v>
+        <v>129</v>
       </c>
       <c r="B61" s="6">
         <v>87</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>402</v>
+        <v>709</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>136</v>
+      <c r="A62" s="3" t="s">
+        <v>685</v>
       </c>
       <c r="B62" s="6">
-        <v>86</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>53</v>
+        <v>87</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>726</v>
+        <v>130</v>
+      </c>
+      <c r="B63" s="6">
+        <v>87</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>396</v>
+        <v>723</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>137</v>
+        <v>385</v>
       </c>
       <c r="B64" s="6">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>378</v>
+        <v>713</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>548</v>
+        <v>131</v>
+      </c>
+      <c r="B65" s="6">
+        <v>86</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>391</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>548</v>
+        <v>347</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>649</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>397</v>
+        <v>718</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>461</v>
+        <v>132</v>
       </c>
       <c r="B67" s="6">
         <v>86</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>413</v>
+        <v>706</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B68" s="6">
-        <v>86</v>
+        <v>491</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>492</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>121</v>
+        <v>722</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B69" s="6">
-        <v>86</v>
+        <v>493</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>492</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>396</v>
+        <v>780</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>140</v>
+        <v>407</v>
       </c>
       <c r="B70" s="6">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>121</v>
+        <v>704</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B71" s="6">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>402</v>
+        <v>717</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="B72" s="4">
-        <v>85</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>642</v>
+      <c r="A72" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" s="6">
+        <v>86</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B73" s="6">
         <v>85</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>144</v>
+      <c r="A74" s="3" t="s">
+        <v>684</v>
       </c>
       <c r="B74" s="6">
         <v>85</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>55</v>
+      <c r="C74" s="3" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="B75" s="4">
+      <c r="A75" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="6">
         <v>85</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>694</v>
+      <c r="C75" s="5" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>703</v>
+        <v>589</v>
       </c>
       <c r="B76" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>704</v>
+        <v>728</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>550</v>
+        <v>137</v>
+      </c>
+      <c r="B77" s="6">
+        <v>85</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>391</v>
+        <v>717</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B78" s="6">
+        <v>85</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B79" s="4">
+        <v>85</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B80" s="4">
         <v>84</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B79" s="6">
-        <v>84</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B80" s="6">
-        <v>84</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>397</v>
+      <c r="C80" s="3" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>176</v>
+        <v>559</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>121</v>
+        <v>494</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B82" s="6">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>397</v>
+        <v>762</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B83" s="6">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>575</v>
+        <v>348</v>
       </c>
       <c r="B84" s="6">
-        <v>82</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>121</v>
+        <v>84</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>56</v>
+      <c r="A85" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B85" s="6">
+        <v>83</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B86" s="6">
-        <v>82</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>121</v>
+        <v>171</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="s">
-        <v>148</v>
+      <c r="A87" s="3" t="s">
+        <v>671</v>
       </c>
       <c r="B87" s="6">
-        <v>81</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>55</v>
+        <v>83</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B88" s="6">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>121</v>
+        <v>780</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B89" s="6">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>396</v>
+        <v>717</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>577</v>
+        <v>517</v>
+      </c>
+      <c r="B90" s="6">
+        <v>82</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B91" s="6">
-        <v>80</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>121</v>
+        <v>169</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>620</v>
+        <v>142</v>
       </c>
       <c r="B92" s="6">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>619</v>
+        <v>717</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B93" s="6">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>387</v>
+        <v>762</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>601</v>
+        <v>145</v>
+      </c>
+      <c r="B94" s="6">
+        <v>81</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>55</v>
+        <v>717</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>618</v>
+        <v>146</v>
       </c>
       <c r="B95" s="6">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>619</v>
+        <v>718</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B96" s="6">
-        <v>79</v>
+        <v>528</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>485</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>121</v>
+        <v>748</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>357</v>
+        <v>147</v>
       </c>
       <c r="B97" s="6">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>348</v>
+        <v>717</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="B98" s="4">
-        <v>78</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>639</v>
+      <c r="A98" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B98" s="6">
+        <v>80</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B99" s="6">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>121</v>
+        <v>738</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B100" s="6">
-        <v>78</v>
+        <v>495</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>539</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>55</v>
+        <v>762</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>158</v>
+        <v>555</v>
       </c>
       <c r="B101" s="6">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>121</v>
+        <v>766</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B102" s="6">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>55</v>
+        <v>717</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>617</v>
+        <v>349</v>
       </c>
       <c r="B103" s="6">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>121</v>
+        <v>751</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="B104" s="6">
-        <v>77</v>
+        <v>572</v>
+      </c>
+      <c r="B104" s="4">
+        <v>78</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>731</v>
+        <v>767</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B105" s="6">
-        <v>77</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>55</v>
+      <c r="A105" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B105" s="4">
+        <v>78</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B106" s="6">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B107" s="6">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>55</v>
+        <v>762</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B108" s="6">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>392</v>
+        <v>717</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B109" s="6">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>121</v>
+        <v>762</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>463</v>
+        <v>554</v>
       </c>
       <c r="B110" s="6">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>423</v>
+        <v>717</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="5" t="s">
-        <v>164</v>
+      <c r="A111" s="3" t="s">
+        <v>657</v>
       </c>
       <c r="B111" s="6">
-        <v>75</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>420</v>
+        <v>77</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B112" s="6">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>341</v>
+        <v>762</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>464</v>
+        <v>155</v>
       </c>
       <c r="B113" s="6">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>55</v>
+        <v>717</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>358</v>
+        <v>156</v>
       </c>
       <c r="B114" s="6">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>55</v>
+        <v>762</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="3" t="s">
-        <v>738</v>
+      <c r="A115" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="B115" s="6">
-        <v>74</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>740</v>
+        <v>76</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B116" s="6">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>385</v>
+        <v>717</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>472</v>
+        <v>409</v>
       </c>
       <c r="B117" s="6">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>401</v>
+        <v>742</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B118" s="6">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>55</v>
+        <v>759</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B119" s="6">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>382</v>
+        <v>715</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="5" t="s">
-        <v>170</v>
+      <c r="A120" s="3" t="s">
+        <v>679</v>
       </c>
       <c r="B120" s="6">
-        <v>67</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>421</v>
+        <v>75</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>465</v>
+        <v>410</v>
       </c>
       <c r="B121" s="6">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>428</v>
+        <v>762</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>171</v>
+        <v>350</v>
       </c>
       <c r="B122" s="6">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>121</v>
+        <v>762</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="5" t="s">
-        <v>172</v>
+      <c r="A123" s="3" t="s">
+        <v>660</v>
       </c>
       <c r="B123" s="6">
-        <v>65</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>121</v>
+        <v>74</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B124" s="6">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>377</v>
+        <v>743</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="B125" s="6">
+        <v>72</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B126" s="6">
+        <v>71</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B127" s="6">
+        <v>70</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B128" s="6">
+        <v>69</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B129" s="6">
+        <v>67</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B130" s="6">
         <v>65</v>
       </c>
-      <c r="C125" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="B126" s="6" t="s">
+      <c r="C130" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B131" s="6">
+        <v>65</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B132" s="6">
+        <v>65</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B133" s="6">
+        <v>65</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B134" s="6">
+        <v>65</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>121</v>
+      <c r="C135" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -5825,10 +6195,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D121" sqref="A121:XFD121"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5841,453 +6211,453 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B1" s="10">
         <v>99</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>557</v>
+        <v>501</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>672</v>
+        <v>602</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>685</v>
+        <v>615</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>538</v>
+        <v>483</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>688</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>539</v>
+        <v>484</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>419</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>651</v>
+        <v>583</v>
       </c>
       <c r="B6" s="4">
         <v>95</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>642</v>
+        <v>728</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="B7" s="10">
         <v>95</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>415</v>
+        <v>720</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B8" s="10">
         <v>95</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>52</v>
+        <v>757</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>467</v>
+        <v>413</v>
       </c>
       <c r="B9" s="10">
         <v>95</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>719</v>
+        <v>643</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B11" s="10">
         <v>95</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>397</v>
+        <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B12" s="10">
         <v>94</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>605</v>
+        <v>543</v>
       </c>
       <c r="B13" s="10">
         <v>94</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B14" s="10">
         <v>94</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>650</v>
+        <v>582</v>
       </c>
       <c r="B15" s="4">
         <v>94</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>642</v>
+        <v>728</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B16" s="10">
         <v>94</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>724</v>
+        <v>647</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>51</v>
+        <v>781</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>712</v>
+        <v>636</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>711</v>
+        <v>635</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>427</v>
+        <v>703</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>697</v>
+        <v>624</v>
       </c>
       <c r="B20" s="4">
         <v>93</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>694</v>
+        <v>727</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B21" s="10">
         <v>93</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>52</v>
+        <v>757</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>558</v>
+        <v>502</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>561</v>
+        <v>505</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>391</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>649</v>
+        <v>581</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>561</v>
+        <v>505</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>397</v>
+        <v>780</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>596</v>
+        <v>534</v>
       </c>
       <c r="B24" s="10">
         <v>93</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>594</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B25" s="10">
         <v>93</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>559</v>
+        <v>503</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>560</v>
+        <v>504</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>391</v>
+        <v>722</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B27" s="10">
         <v>92</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B28" s="10">
         <v>92</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>417</v>
+        <v>744</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>713</v>
+        <v>637</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B30" s="10">
+      <c r="A30" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B30" s="4">
         <v>92</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>121</v>
+      <c r="C30" s="3" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>725</v>
+        <v>186</v>
+      </c>
+      <c r="B31" s="10">
+        <v>92</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>399</v>
+        <v>717</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="B32" s="10">
-        <v>91</v>
+        <v>188</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>648</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>194</v>
+        <v>536</v>
       </c>
       <c r="B33" s="10">
         <v>91</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>52</v>
+        <v>718</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B34" s="10">
         <v>91</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>419</v>
+        <v>757</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B35" s="10">
         <v>91</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>388</v>
+        <v>725</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>632</v>
+      <c r="A36" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="10">
+        <v>91</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>572</v>
+        <v>754</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="B37" s="10">
-        <v>90</v>
+      <c r="A37" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>567</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>52</v>
+        <v>753</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
-        <v>199</v>
+        <v>530</v>
       </c>
       <c r="B38" s="10">
         <v>90</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>396</v>
+        <v>757</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>666</v>
+        <v>194</v>
+      </c>
+      <c r="B39" s="10">
+        <v>90</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>415</v>
+        <v>718</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B40" s="10">
-        <v>90</v>
+        <v>65</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>596</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>121</v>
+        <v>720</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>205</v>
+        <v>553</v>
       </c>
       <c r="B41" s="10">
         <v>90</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -6298,1041 +6668,1074 @@
         <v>90</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>419</v>
+        <v>717</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B43" s="10">
         <v>90</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>416</v>
+        <v>725</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B44" s="10">
         <v>90</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>53</v>
+        <v>712</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="B45" s="10">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>415</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>586</v>
+        <v>67</v>
       </c>
       <c r="B46" s="10">
         <v>89</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>576</v>
+        <v>720</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>203</v>
+        <v>525</v>
       </c>
       <c r="B47" s="10">
         <v>89</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>402</v>
+        <v>716</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B48" s="10">
         <v>89</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>405</v>
+        <v>713</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>718</v>
+        <v>211</v>
+      </c>
+      <c r="B49" s="10">
+        <v>89</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>397</v>
+        <v>726</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="B50" s="4">
+      <c r="A50" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B51" s="4">
         <v>89</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B51" s="10">
-        <v>89</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>121</v>
+      <c r="C51" s="3" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>443</v>
+        <v>199</v>
       </c>
       <c r="B52" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>397</v>
+        <v>717</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>562</v>
+        <v>389</v>
+      </c>
+      <c r="B53" s="10">
+        <v>88</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>378</v>
+        <v>780</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B54" s="10">
-        <v>88</v>
+        <v>201</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>506</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>121</v>
+        <v>706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B55" s="10">
         <v>88</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>386</v>
+        <v>717</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>362</v>
+        <v>203</v>
       </c>
       <c r="B56" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>396</v>
+        <v>705</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>219</v>
+        <v>354</v>
       </c>
       <c r="B57" s="10">
         <v>87</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>405</v>
+        <v>718</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B58" s="10">
         <v>87</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>419</v>
+        <v>726</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B59" s="10">
         <v>87</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>121</v>
+        <v>725</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
-        <v>440</v>
+        <v>205</v>
       </c>
       <c r="B60" s="10">
         <v>87</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>402</v>
+        <v>717</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
-        <v>211</v>
+        <v>386</v>
       </c>
       <c r="B61" s="10">
         <v>87</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>121</v>
+        <v>713</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B62" s="10">
+        <v>87</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B63" s="10">
         <v>86</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="B63" s="4">
+      <c r="C63" s="9" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B64" s="4">
         <v>86</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="B64" s="10">
-        <v>86</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>429</v>
+      <c r="C64" s="3" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
-        <v>213</v>
+        <v>353</v>
       </c>
       <c r="B65" s="10">
         <v>86</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>121</v>
+        <v>763</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
-        <v>363</v>
+        <v>208</v>
       </c>
       <c r="B66" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>396</v>
+        <v>717</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>564</v>
+        <v>355</v>
+      </c>
+      <c r="B67" s="10">
+        <v>85</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>397</v>
+        <v>718</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="B68" s="4">
-        <v>85</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>704</v>
+      <c r="A68" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>707</v>
+        <v>630</v>
       </c>
       <c r="B69" s="4">
         <v>85</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>706</v>
+        <v>629</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="B70" s="10">
+      <c r="A70" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B70" s="4">
         <v>85</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>576</v>
+      <c r="C70" s="3" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
-        <v>214</v>
+        <v>526</v>
       </c>
       <c r="B71" s="10">
         <v>85</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>121</v>
+        <v>716</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B72" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
-        <v>621</v>
+        <v>210</v>
       </c>
       <c r="B73" s="10">
         <v>84</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>619</v>
+        <v>717</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
-        <v>217</v>
+        <v>557</v>
       </c>
       <c r="B74" s="10">
         <v>84</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>396</v>
+        <v>766</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
-        <v>444</v>
+        <v>212</v>
       </c>
       <c r="B75" s="10">
         <v>84</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>393</v>
+        <v>718</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="B76" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>430</v>
+        <v>719</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B77" s="10">
         <v>83</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>121</v>
+        <v>752</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="B78" s="4">
+      <c r="A78" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B78" s="10">
         <v>83</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>121</v>
+      <c r="C78" s="9" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="B79" s="10">
+      <c r="A79" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B79" s="4">
         <v>83</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>55</v>
+      <c r="C79" s="3" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
-        <v>218</v>
+        <v>412</v>
       </c>
       <c r="B80" s="10">
         <v>83</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>378</v>
+        <v>762</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B81" s="10">
         <v>83</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>55</v>
+        <v>706</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
-        <v>445</v>
+        <v>215</v>
       </c>
       <c r="B82" s="10">
         <v>83</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>397</v>
+        <v>762</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
-        <v>222</v>
+        <v>391</v>
       </c>
       <c r="B83" s="10">
         <v>83</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>121</v>
+        <v>780</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="B84" s="4">
-        <v>82</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>654</v>
+      <c r="A84" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B84" s="10">
+        <v>83</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>656</v>
+        <v>586</v>
       </c>
       <c r="B85" s="4">
         <v>82</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>654</v>
+        <v>772</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="B86" s="10">
+      <c r="A86" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B86" s="4">
         <v>82</v>
       </c>
-      <c r="C86" s="9" t="s">
-        <v>55</v>
+      <c r="C86" s="3" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
-        <v>223</v>
+        <v>358</v>
       </c>
       <c r="B87" s="10">
         <v>82</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>55</v>
+        <v>762</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="B88" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>55</v>
+        <v>762</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B89" s="10">
         <v>81</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>55</v>
+        <v>762</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B90" s="10">
         <v>81</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>55</v>
+        <v>762</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="B91" s="4">
+      <c r="A91" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B91" s="10">
+        <v>81</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B92" s="4">
         <v>80</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B92" s="10">
-        <v>80</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>55</v>
+      <c r="C92" s="3" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
-        <v>468</v>
+        <v>221</v>
       </c>
       <c r="B93" s="10">
         <v>80</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>380</v>
+        <v>762</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
-        <v>614</v>
+        <v>414</v>
       </c>
       <c r="B94" s="10">
         <v>80</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>609</v>
+        <v>707</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
-        <v>227</v>
+        <v>551</v>
       </c>
       <c r="B95" s="10">
         <v>80</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>431</v>
+        <v>729</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B96" s="10">
         <v>80</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B97" s="10">
         <v>80</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>398</v>
+        <v>723</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B98" s="10">
-        <v>79</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>121</v>
+        <v>80</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
-        <v>579</v>
+        <v>225</v>
       </c>
       <c r="B99" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>55</v>
+        <v>717</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
-        <v>231</v>
+        <v>518</v>
       </c>
       <c r="B100" s="10">
         <v>78</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>121</v>
+        <v>762</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B101" s="10">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B102" s="10">
         <v>77</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
-        <v>622</v>
+        <v>228</v>
       </c>
       <c r="B103" s="10">
         <v>77</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>619</v>
+        <v>717</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
-        <v>234</v>
+        <v>558</v>
       </c>
       <c r="B104" s="10">
         <v>77</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>121</v>
+        <v>766</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>674</v>
+        <v>229</v>
+      </c>
+      <c r="B105" s="10">
+        <v>77</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B106" s="10">
-        <v>76</v>
+        <v>230</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>604</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>420</v>
+        <v>717</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B107" s="10">
         <v>76</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>121</v>
+        <v>759</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B108" s="10">
         <v>76</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>55</v>
+        <v>717</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B109" s="10">
         <v>76</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>121</v>
+        <v>762</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B110" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>55</v>
+        <v>717</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>675</v>
+        <v>235</v>
+      </c>
+      <c r="B111" s="10">
+        <v>75</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>421</v>
+        <v>762</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>565</v>
+        <v>237</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>605</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>424</v>
+        <v>724</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="B113" s="10">
-        <v>74</v>
+        <v>510</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>509</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>55</v>
+        <v>749</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>673</v>
+        <v>415</v>
+      </c>
+      <c r="B114" s="10">
+        <v>74</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>407</v>
+        <v>762</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B115" s="10">
-        <v>73</v>
+        <v>238</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>603</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>428</v>
+        <v>758</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>567</v>
+        <v>239</v>
+      </c>
+      <c r="B116" s="10">
+        <v>73</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="9" t="s">
-        <v>245</v>
+      <c r="A117" s="3" t="s">
+        <v>690</v>
       </c>
       <c r="B117" s="10">
         <v>73</v>
       </c>
-      <c r="C117" s="9" t="s">
-        <v>121</v>
+      <c r="C117" s="3" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B118" s="10">
-        <v>73</v>
+        <v>512</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>511</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>55</v>
+        <v>755</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B119" s="10">
         <v>73</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B120" s="10">
         <v>73</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>121</v>
+        <v>762</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="3" t="s">
-        <v>734</v>
+      <c r="A121" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="B121" s="10">
-        <v>72</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>731</v>
+        <v>73</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B122" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>55</v>
+        <v>717</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="9" t="s">
-        <v>250</v>
+      <c r="A123" s="3" t="s">
+        <v>656</v>
       </c>
       <c r="B123" s="10">
-        <v>71</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>55</v>
+        <v>72</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="s">
-        <v>367</v>
+        <v>243</v>
       </c>
       <c r="B124" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>403</v>
+        <v>762</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B125" s="10">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>55</v>
+        <v>762</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="s">
-        <v>252</v>
+        <v>359</v>
       </c>
       <c r="B126" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>55</v>
+        <v>714</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B127" s="10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>341</v>
+        <v>762</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B128" s="10">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>55</v>
+        <v>762</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B129" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>55</v>
+        <v>715</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B130" s="10">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>121</v>
+        <v>762</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B131" s="10">
         <v>65</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>377</v>
+        <v>762</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>49</v>
+        <v>251</v>
+      </c>
+      <c r="B132" s="10">
+        <v>65</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>49</v>
+        <v>252</v>
+      </c>
+      <c r="B133" s="10">
+        <v>65</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>430</v>
+        <v>369</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
-        <v>597</v>
+        <v>254</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="B135" s="4" t="s">
+      <c r="A135" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B135" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>687</v>
+      <c r="C135" s="9" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="B136" s="4" t="s">
+      <c r="A136" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B136" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C136" s="3" t="s">
-        <v>397</v>
+      <c r="C136" s="9" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -7342,10 +7745,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7357,1443 +7760,1520 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>557</v>
+        <v>501</v>
       </c>
       <c r="C1" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>557</v>
+        <v>501</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>737</v>
+        <v>659</v>
       </c>
       <c r="B3" s="1">
         <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>606</v>
+        <v>544</v>
       </c>
       <c r="B4" s="1">
         <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>539</v>
+        <v>484</v>
       </c>
       <c r="C5" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B6" s="1">
         <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>607</v>
+        <v>545</v>
       </c>
       <c r="B7" s="1">
         <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>757</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B8" s="1">
         <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>384</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>676</v>
       </c>
       <c r="B9" s="1">
         <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>384</v>
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>552</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>602</v>
+        <v>668</v>
+      </c>
+      <c r="B10" s="1">
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>397</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B11" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>399</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>496</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>624</v>
+        <v>540</v>
       </c>
       <c r="C12" t="s">
-        <v>400</v>
+        <v>780</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B13" s="1">
         <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>713</v>
+        <v>560</v>
       </c>
       <c r="C14" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>714</v>
+        <v>266</v>
+      </c>
+      <c r="B15" s="1">
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>272</v>
-      </c>
-      <c r="B16" s="1">
-        <v>92</v>
+        <v>275</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>637</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>273</v>
-      </c>
-      <c r="B17" s="1">
-        <v>92</v>
+        <v>308</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>638</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>595</v>
+        <v>267</v>
       </c>
       <c r="B18" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>594</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>585</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>723</v>
+        <v>268</v>
+      </c>
+      <c r="B19" s="1">
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>576</v>
+        <v>717</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>274</v>
+        <v>533</v>
       </c>
       <c r="B20" s="1">
         <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>393</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>275</v>
-      </c>
-      <c r="B21" s="1">
-        <v>91</v>
+        <v>524</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>646</v>
       </c>
       <c r="C21" t="s">
-        <v>378</v>
+        <v>716</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>699</v>
+        <v>269</v>
       </c>
       <c r="B22" s="1">
         <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>437</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>723</v>
+        <v>270</v>
+      </c>
+      <c r="B23" s="1">
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>277</v>
+        <v>626</v>
       </c>
       <c r="B24" s="1">
         <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>773</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>278</v>
-      </c>
-      <c r="B25" s="1">
-        <v>91</v>
+        <v>383</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>646</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>717</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>266</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>723</v>
+        <v>272</v>
+      </c>
+      <c r="B26" s="1">
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>384</v>
+        <v>717</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>276</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>721</v>
+        <v>273</v>
+      </c>
+      <c r="B27" s="1">
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>757</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>613</v>
-      </c>
-      <c r="B28" s="1">
-        <v>90</v>
+        <v>261</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>646</v>
       </c>
       <c r="C28" t="s">
-        <v>609</v>
+        <v>710</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>664</v>
+        <v>271</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="C29" t="s">
-        <v>662</v>
+        <v>717</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>279</v>
+        <v>550</v>
       </c>
       <c r="B30" s="1">
         <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>402</v>
+        <v>729</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>281</v>
-      </c>
-      <c r="B31" s="1">
-        <v>90</v>
+        <v>594</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="C31" t="s">
-        <v>406</v>
+        <v>774</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>584</v>
+        <v>274</v>
       </c>
       <c r="B32" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>576</v>
+        <v>713</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B33" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>393</v>
+        <v>723</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>645</v>
+        <v>523</v>
       </c>
       <c r="B34" s="1">
         <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>716</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B35" s="1">
         <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>719</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>680</v>
+        <v>577</v>
+      </c>
+      <c r="B36" s="1">
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>717</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B37" s="1">
         <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>757</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>715</v>
+        <v>610</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>757</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B39" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>411</v>
+        <v>717</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>288</v>
-      </c>
-      <c r="B40" s="1">
-        <v>88</v>
+        <v>281</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>639</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B41" s="1">
         <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>711</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B42" s="1">
         <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>291</v>
+        <v>678</v>
       </c>
       <c r="B43" s="1">
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>707</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B44" s="1">
         <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>396</v>
+        <v>717</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B45" s="1">
         <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>696</v>
+        <v>286</v>
       </c>
       <c r="B46" s="1">
         <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>694</v>
+        <v>717</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>661</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>600</v>
+        <v>287</v>
+      </c>
+      <c r="B47" s="1">
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>662</v>
+        <v>718</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B48" s="1">
         <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>396</v>
+        <v>717</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>295</v>
+        <v>623</v>
       </c>
       <c r="B49" s="1">
         <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>727</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>446</v>
-      </c>
-      <c r="B50" s="1">
-        <v>88</v>
+        <v>592</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="C50" t="s">
-        <v>386</v>
+        <v>774</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B51" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>718</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>369</v>
+        <v>290</v>
       </c>
       <c r="B52" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>397</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>553</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>546</v>
+        <v>392</v>
+      </c>
+      <c r="B53" s="1">
+        <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>409</v>
+        <v>705</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>447</v>
+        <v>291</v>
       </c>
       <c r="B54" s="1">
         <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>393</v>
+        <v>762</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>297</v>
+        <v>361</v>
       </c>
       <c r="B55" s="1">
         <v>87</v>
       </c>
       <c r="C55" t="s">
-        <v>419</v>
+        <v>780</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>582</v>
-      </c>
-      <c r="B56" s="1">
-        <v>87</v>
+        <v>497</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="C56" t="s">
-        <v>576</v>
+        <v>756</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>298</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>603</v>
+        <v>393</v>
+      </c>
+      <c r="B57" s="1">
+        <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>719</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B58" s="1">
         <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>725</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>300</v>
+        <v>521</v>
       </c>
       <c r="B59" s="1">
         <v>87</v>
       </c>
       <c r="C59" t="s">
-        <v>396</v>
+        <v>716</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>301</v>
-      </c>
-      <c r="B60" s="1">
-        <v>86</v>
+        <v>293</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="C60" t="s">
-        <v>402</v>
+        <v>757</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B61" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>411</v>
+        <v>717</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>554</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>548</v>
+        <v>295</v>
+      </c>
+      <c r="B62" s="1">
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>718</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B63" s="1">
         <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>419</v>
+        <v>713</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>304</v>
+        <v>677</v>
       </c>
       <c r="B64" s="1">
         <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>418</v>
+        <v>707</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B65" s="1">
         <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>121</v>
+        <v>711</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>306</v>
-      </c>
-      <c r="B66" s="1">
-        <v>86</v>
+        <v>498</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>762</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="B67" s="1">
         <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>381</v>
+        <v>725</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>370</v>
+        <v>299</v>
       </c>
       <c r="B68" s="1">
         <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>396</v>
+        <v>760</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>659</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>667</v>
+        <v>300</v>
+      </c>
+      <c r="B69" s="1">
+        <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>642</v>
+        <v>717</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B70" s="1">
         <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>717</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>663</v>
+        <v>363</v>
       </c>
       <c r="B71" s="1">
         <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>662</v>
+        <v>708</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="B72" s="1">
         <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>432</v>
+        <v>718</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>309</v>
-      </c>
-      <c r="B73" s="1">
-        <v>86</v>
+        <v>590</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>597</v>
       </c>
       <c r="C73" t="s">
-        <v>397</v>
+        <v>728</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>571</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>564</v>
+        <v>302</v>
+      </c>
+      <c r="B74" s="1">
+        <v>86</v>
       </c>
       <c r="C74" t="s">
-        <v>415</v>
+        <v>762</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>310</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>681</v>
+        <v>593</v>
+      </c>
+      <c r="B75" s="1">
+        <v>86</v>
       </c>
       <c r="C75" t="s">
-        <v>415</v>
+        <v>774</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="B76" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>417</v>
+        <v>775</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>581</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>683</v>
+        <v>304</v>
+      </c>
+      <c r="B77" s="1">
+        <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>430</v>
+        <v>780</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>311</v>
-      </c>
-      <c r="B78" s="1">
-        <v>85</v>
+        <v>514</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>508</v>
       </c>
       <c r="C78" t="s">
-        <v>422</v>
+        <v>720</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>312</v>
-      </c>
-      <c r="B79" s="1">
-        <v>84</v>
+        <v>305</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>611</v>
       </c>
       <c r="C79" t="s">
-        <v>55</v>
+        <v>720</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>583</v>
+        <v>325</v>
       </c>
       <c r="B80" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>576</v>
+        <v>744</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>314</v>
-      </c>
-      <c r="B81" s="1">
-        <v>83</v>
+        <v>520</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>613</v>
       </c>
       <c r="C81" t="s">
-        <v>121</v>
+        <v>752</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>448</v>
+        <v>306</v>
       </c>
       <c r="B82" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>380</v>
+        <v>709</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>438</v>
+        <v>307</v>
       </c>
       <c r="B83" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>55</v>
+        <v>762</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>580</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>604</v>
+        <v>522</v>
+      </c>
+      <c r="B84" s="1">
+        <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>121</v>
+        <v>716</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>742</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>604</v>
+        <v>309</v>
+      </c>
+      <c r="B85" s="1">
+        <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>397</v>
+        <v>717</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>177</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>412</v>
+        <v>394</v>
+      </c>
+      <c r="B86" s="1">
+        <v>83</v>
+      </c>
+      <c r="C86" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>556</v>
+        <v>384</v>
       </c>
       <c r="B87" s="1">
         <v>82</v>
       </c>
       <c r="C87" t="s">
-        <v>55</v>
+        <v>762</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>372</v>
-      </c>
-      <c r="B88" s="1">
-        <v>82</v>
+        <v>519</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>542</v>
       </c>
       <c r="C88" t="s">
-        <v>381</v>
+        <v>717</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>315</v>
-      </c>
-      <c r="B89" s="1">
-        <v>82</v>
+        <v>663</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>542</v>
       </c>
       <c r="C89" t="s">
-        <v>121</v>
+        <v>780</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>316</v>
-      </c>
-      <c r="B90" s="1">
-        <v>82</v>
-      </c>
-      <c r="C90" t="s">
-        <v>55</v>
+        <v>172</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>317</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>682</v>
+        <v>500</v>
+      </c>
+      <c r="B91" s="1">
+        <v>82</v>
       </c>
       <c r="C91" t="s">
-        <v>52</v>
+        <v>762</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="B92" s="1">
         <v>82</v>
       </c>
       <c r="C92" t="s">
-        <v>55</v>
+        <v>708</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B93" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>640</v>
+        <v>311</v>
       </c>
       <c r="B94" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C94" t="s">
-        <v>639</v>
+        <v>762</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>312</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B95" s="1">
-        <v>80</v>
-      </c>
       <c r="C95" t="s">
-        <v>609</v>
+        <v>757</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>373</v>
+        <v>313</v>
       </c>
       <c r="B96" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C96" t="s">
-        <v>321</v>
+        <v>762</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B97" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C97" t="s">
-        <v>321</v>
+        <v>717</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>322</v>
+        <v>573</v>
       </c>
       <c r="B98" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C98" t="s">
-        <v>419</v>
+        <v>767</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="B99" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C99" t="s">
-        <v>642</v>
+        <v>768</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>323</v>
+        <v>549</v>
       </c>
       <c r="B100" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C100" t="s">
-        <v>419</v>
+        <v>729</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="B101" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C101" t="s">
-        <v>55</v>
+        <v>776</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B102" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C102" t="s">
-        <v>121</v>
+        <v>776</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>326</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>555</v>
+        <v>316</v>
+      </c>
+      <c r="B103" s="1">
+        <v>79</v>
       </c>
       <c r="C103" t="s">
-        <v>121</v>
+        <v>725</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>327</v>
+        <v>591</v>
       </c>
       <c r="B104" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C104" t="s">
-        <v>55</v>
+        <v>728</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B105" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C105" t="s">
-        <v>121</v>
+        <v>725</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B106" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C106" t="s">
-        <v>121</v>
+        <v>762</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>631</v>
+        <v>319</v>
       </c>
       <c r="B107" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C107" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>330</v>
-      </c>
-      <c r="B108" s="1">
-        <v>76</v>
+        <v>320</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>499</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>736</v>
+        <v>321</v>
       </c>
       <c r="B109" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C109" t="s">
-        <v>731</v>
+        <v>762</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>441</v>
+        <v>322</v>
       </c>
       <c r="B110" s="1">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C110" t="s">
-        <v>401</v>
+        <v>717</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B111" s="1">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C111" t="s">
-        <v>420</v>
+        <v>717</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>333</v>
+        <v>566</v>
       </c>
       <c r="B112" s="1">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C112" t="s">
-        <v>121</v>
+        <v>717</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B113" s="1">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C113" t="s">
-        <v>404</v>
+        <v>717</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>335</v>
+        <v>658</v>
       </c>
       <c r="B114" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C114" t="s">
-        <v>55</v>
+        <v>765</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
       <c r="B115" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C115" t="s">
-        <v>387</v>
+        <v>745</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B116" s="1">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C116" t="s">
-        <v>55</v>
+        <v>759</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B117" s="1">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C117" t="s">
-        <v>55</v>
+        <v>717</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>470</v>
+        <v>328</v>
       </c>
       <c r="B118" s="1">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C118" t="s">
-        <v>55</v>
+        <v>761</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B119" s="1">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C119" t="s">
-        <v>341</v>
+        <v>762</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>374</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>684</v>
+        <v>330</v>
+      </c>
+      <c r="B120" s="1">
+        <v>72</v>
       </c>
       <c r="C120" t="s">
-        <v>56</v>
+        <v>738</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B121" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C121" t="s">
-        <v>421</v>
+        <v>762</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>342</v>
+        <v>680</v>
       </c>
       <c r="B122" s="1">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C122" t="s">
-        <v>360</v>
+        <v>717</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B123" s="1">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C123" t="s">
-        <v>424</v>
+        <v>762</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>743</v>
+        <v>416</v>
       </c>
       <c r="B124" s="1">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C124" t="s">
-        <v>55</v>
+        <v>762</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B125" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C125" t="s">
-        <v>121</v>
+        <v>715</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>375</v>
-      </c>
-      <c r="B126" s="1">
-        <v>66</v>
+        <v>366</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>614</v>
       </c>
       <c r="C126" t="s">
-        <v>380</v>
+        <v>736</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B127" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C127" t="s">
-        <v>121</v>
+        <v>724</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B128" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C128" t="s">
-        <v>433</v>
+        <v>352</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B129" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C129" t="s">
-        <v>377</v>
+        <v>749</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>648</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>49</v>
+        <v>664</v>
+      </c>
+      <c r="B130" s="1">
+        <v>66</v>
       </c>
       <c r="C130" t="s">
-        <v>55</v>
+        <v>762</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>689</v>
-      </c>
-      <c r="B131" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B131" s="1">
+        <v>66</v>
+      </c>
+      <c r="C131" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>367</v>
+      </c>
+      <c r="B132" s="1">
+        <v>66</v>
+      </c>
+      <c r="C132" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>338</v>
+      </c>
+      <c r="B133" s="1">
+        <v>65</v>
+      </c>
+      <c r="C133" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>339</v>
+      </c>
+      <c r="B134" s="1">
+        <v>65</v>
+      </c>
+      <c r="C134" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>340</v>
+      </c>
+      <c r="B135" s="1">
+        <v>65</v>
+      </c>
+      <c r="C135" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>688</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C131" t="s">
-        <v>690</v>
+      <c r="C136" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>580</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C137" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>618</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C138" t="s">
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -8806,7 +9286,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8816,255 +9296,255 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>535</v>
+        <v>778</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>471</v>
+        <v>417</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s">
-        <v>520</v>
+        <v>466</v>
       </c>
       <c r="C3" t="s">
-        <v>488</v>
+        <v>434</v>
       </c>
       <c r="D3" t="s">
-        <v>515</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>504</v>
+        <v>450</v>
       </c>
       <c r="B4" t="s">
-        <v>536</v>
+        <v>481</v>
       </c>
       <c r="C4" t="s">
-        <v>484</v>
+        <v>430</v>
       </c>
       <c r="D4" t="s">
-        <v>533</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>522</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s">
-        <v>524</v>
+        <v>470</v>
       </c>
       <c r="C5" t="s">
-        <v>487</v>
+        <v>433</v>
       </c>
       <c r="D5" t="s">
-        <v>511</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>534</v>
+        <v>480</v>
       </c>
       <c r="B6" t="s">
-        <v>517</v>
+        <v>463</v>
       </c>
       <c r="C6" t="s">
-        <v>475</v>
+        <v>421</v>
       </c>
       <c r="D6" t="s">
-        <v>531</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>496</v>
+        <v>442</v>
       </c>
       <c r="B7" t="s">
-        <v>528</v>
+        <v>474</v>
       </c>
       <c r="C7" t="s">
-        <v>482</v>
+        <v>428</v>
       </c>
       <c r="D7" t="s">
-        <v>509</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>498</v>
+        <v>444</v>
       </c>
       <c r="B8" t="s">
-        <v>516</v>
+        <v>462</v>
       </c>
       <c r="C8" t="s">
-        <v>590</v>
+        <v>529</v>
       </c>
       <c r="D8" t="s">
-        <v>532</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>527</v>
+        <v>473</v>
       </c>
       <c r="B9" t="s">
-        <v>519</v>
+        <v>465</v>
       </c>
       <c r="C9" t="s">
-        <v>473</v>
+        <v>419</v>
       </c>
       <c r="D9" t="s">
-        <v>512</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>503</v>
+        <v>449</v>
       </c>
       <c r="B10" t="s">
-        <v>529</v>
+        <v>475</v>
       </c>
       <c r="C10" t="s">
-        <v>491</v>
+        <v>437</v>
       </c>
       <c r="D10" t="s">
-        <v>514</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>494</v>
+        <v>440</v>
       </c>
       <c r="B11" t="s">
-        <v>518</v>
+        <v>464</v>
       </c>
       <c r="C11" t="s">
-        <v>490</v>
+        <v>436</v>
       </c>
       <c r="D11" t="s">
-        <v>513</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>495</v>
+        <v>441</v>
       </c>
       <c r="B12" t="s">
-        <v>521</v>
+        <v>467</v>
       </c>
       <c r="C12" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="D12" t="s">
-        <v>530</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>501</v>
+        <v>447</v>
       </c>
       <c r="C13" t="s">
-        <v>474</v>
+        <v>420</v>
       </c>
       <c r="D13" t="s">
-        <v>510</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>523</v>
+        <v>469</v>
       </c>
       <c r="C14" t="s">
-        <v>489</v>
+        <v>435</v>
       </c>
       <c r="D14" t="s">
-        <v>507</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>497</v>
+        <v>443</v>
       </c>
       <c r="C15" t="s">
-        <v>485</v>
+        <v>431</v>
       </c>
       <c r="D15" t="s">
-        <v>525</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>505</v>
+        <v>451</v>
       </c>
       <c r="C16" t="s">
-        <v>476</v>
+        <v>422</v>
       </c>
       <c r="D16" t="s">
-        <v>508</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>506</v>
+        <v>452</v>
       </c>
       <c r="C17" t="s">
-        <v>483</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>500</v>
+        <v>446</v>
       </c>
       <c r="C18" t="s">
-        <v>479</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>526</v>
+        <v>472</v>
       </c>
       <c r="C19" t="s">
-        <v>481</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C20" t="s">
-        <v>480</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>499</v>
+        <v>445</v>
       </c>
       <c r="C21" t="s">
-        <v>478</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
-        <v>477</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
-        <v>486</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
